--- a/analise.xlsx
+++ b/analise.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guili\Documents\GitHub\Research_UFRGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CA2319-02CB-4D50-8587-17A21FF733DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB42F9-1B14-4F3B-B8C8-BE187E6C0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D6BB0984-3C45-4374-BF89-AEF1A739B404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D6BB0984-3C45-4374-BF89-AEF1A739B404}"/>
   </bookViews>
   <sheets>
     <sheet name="compara_benchmark" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelas" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_metadados.xlsxTabela11" hidden="1">[1]!Tabela1</definedName>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
   <si>
     <t>M=100</t>
   </si>
@@ -249,13 +251,91 @@
   </si>
   <si>
     <t>Ministério da Economia (Min. Economia)</t>
+  </si>
+  <si>
+    <t>R² min</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>h=1</t>
+  </si>
+  <si>
+    <t>h=2</t>
+  </si>
+  <si>
+    <t>h=3</t>
+  </si>
+  <si>
+    <t>h=4</t>
+  </si>
+  <si>
+    <t>h=5</t>
+  </si>
+  <si>
+    <t>h=6</t>
+  </si>
+  <si>
+    <t>h=7</t>
+  </si>
+  <si>
+    <t>h=8</t>
+  </si>
+  <si>
+    <t>h=9</t>
+  </si>
+  <si>
+    <t>h=10</t>
+  </si>
+  <si>
+    <t>h=11</t>
+  </si>
+  <si>
+    <t>h=12</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Tsboost</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>(a) all cases</t>
+  </si>
+  <si>
+    <t>(b) splines more accurate at least once</t>
+  </si>
+  <si>
+    <t>(c) linear more accurate at least once</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>bols</t>
+  </si>
+  <si>
+    <t>bspline</t>
+  </si>
+  <si>
+    <t>tsboost</t>
+  </si>
+  <si>
+    <t>(b) splines more accurate on average</t>
+  </si>
+  <si>
+    <t>(c) linear more accurate on average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +384,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -326,7 +414,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -348,6 +436,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,6 +544,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -462,7 +563,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,28 +602,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C1E3CCE-E19B-4E84-8037-28B5E849B1B8}" name="Tabela1" displayName="Tabela1" ref="B5:C20" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0C1E3CCE-E19B-4E84-8037-28B5E849B1B8}" name="Tabela1" displayName="Tabela1" ref="B5:C20" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="B5:C20" xr:uid="{0C1E3CCE-E19B-4E84-8037-28B5E849B1B8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:C20">
     <sortCondition ref="B5:B20"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EA06F820-6275-416C-9034-386BD3198CBF}" name="Theme" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{FC9E7AB6-4004-4487-82CC-9AB226D26EA6}" name="Number of Series" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EA06F820-6275-416C-9034-386BD3198CBF}" name="Theme" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FC9E7AB6-4004-4487-82CC-9AB226D26EA6}" name="Number of Series" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5893E17D-DEA8-4D78-8851-D316317D2A37}" name="Tabela2" displayName="Tabela2" ref="E5:F23" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5893E17D-DEA8-4D78-8851-D316317D2A37}" name="Tabela2" displayName="Tabela2" ref="E5:F23" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="E5:F23" xr:uid="{5893E17D-DEA8-4D78-8851-D316317D2A37}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E6:F23">
     <sortCondition ref="E5:E23"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C865EB47-D498-4993-8A38-6F67C0CA18F3}" name="Source of the Data" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{6FF32460-F8F2-489E-9D05-A1C7A0FCDDC6}" name="Number of Series" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C865EB47-D498-4993-8A38-6F67C0CA18F3}" name="Source of the Data" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{6FF32460-F8F2-489E-9D05-A1C7A0FCDDC6}" name="Number of Series" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,7 +929,7 @@
   <dimension ref="B7:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F24" sqref="B7:F24"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB1D5DC-AE17-4351-9E86-5D9D899CC34B}">
   <dimension ref="B5:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E6:F22"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,4 +1462,5154 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D2301E-7A1B-45CF-9336-960EAA579FD9}">
+  <dimension ref="A3:V36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>0</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.30687287417508002</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.33142870340522101</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.32935293455549902</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.32568530237176002</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.30757083443175098</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.27303066490948902</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.28685736848890903</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.28635980061023703</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.273431635780499</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.26504558313536702</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.24278404242457</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.10945342157228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.29988969746830701</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.32713381465881902</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.324881580265522</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.32681335612303303</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.30792918906758099</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.27341000422286699</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.29123849897758802</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.28749469892788898</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.27274241060537202</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.26123128951760899</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.23142680711698399</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.109241745897678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.29592085879503899</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.310243619161507</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.30960329859915298</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.320698782501802</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.30006921663133201</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.27115623497803398</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.28694112105456798</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.29274004090249101</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.28309822639530802</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.27923507694549399</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.252883990269621</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.12786168329616299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.32540713669660098</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.34385292258549599</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.34247080091374899</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.33921410918765998</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.32272108937584798</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.29299129413029601</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.30486406448852998</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.30332307238456502</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.292411523938017</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.28436995664738501</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.25955262264190498</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.13244564699206501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14">
+        <v>140</v>
+      </c>
+      <c r="D9" s="14">
+        <v>140</v>
+      </c>
+      <c r="E9" s="14">
+        <v>140</v>
+      </c>
+      <c r="F9" s="14">
+        <v>140</v>
+      </c>
+      <c r="G9" s="14">
+        <v>140</v>
+      </c>
+      <c r="H9" s="14">
+        <v>140</v>
+      </c>
+      <c r="I9" s="14">
+        <v>140</v>
+      </c>
+      <c r="J9" s="14">
+        <v>140</v>
+      </c>
+      <c r="K9" s="14">
+        <v>140</v>
+      </c>
+      <c r="L9" s="14">
+        <v>140</v>
+      </c>
+      <c r="M9" s="14">
+        <v>140</v>
+      </c>
+      <c r="N9" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.41791700839277102</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.46848317846938198</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.49388220078482198</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.55227678106121902</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.54008893222593302</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.55073930241447799</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.55411517833495805</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.55121176223749602</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.51472380602780599</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.49572791390378401</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.446518427304259</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.50397060226925205</v>
+      </c>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.39622504370798201</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.45334682145004201</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.46750306499976702</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.48466371581154499</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.49649254065884701</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.50281222779945001</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.50953213441085798</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.50157897968060405</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.47389541739104402</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.48810618407149797</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.46370333058011598</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.50495281523489999</v>
+      </c>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.40983737774316598</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.437981963549609</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.44913682054788401</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.449222829436214</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.46590464937113102</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.42315669671168199</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.44183127660428201</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.46216242255835899</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.44384086064267397</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.42136263858150802</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.40383736567070799</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.37677404698857803</v>
+      </c>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.43830248859161802</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.48255609073883199</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.50678510746694405</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.51708346708194497</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.50176787291204294</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.50508206052075699</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.49035774116519998</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.48376512623977302</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.45287684389573002</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.45175226216406</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.41403836853951997</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.40582618529660103</v>
+      </c>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="14">
+        <v>101</v>
+      </c>
+      <c r="D14" s="14">
+        <v>98</v>
+      </c>
+      <c r="E14" s="14">
+        <v>92</v>
+      </c>
+      <c r="F14" s="14">
+        <v>89</v>
+      </c>
+      <c r="G14" s="14">
+        <v>88</v>
+      </c>
+      <c r="H14" s="14">
+        <v>79</v>
+      </c>
+      <c r="I14" s="14">
+        <v>85</v>
+      </c>
+      <c r="J14" s="14">
+        <v>85</v>
+      </c>
+      <c r="K14" s="14">
+        <v>88</v>
+      </c>
+      <c r="L14" s="14">
+        <v>85</v>
+      </c>
+      <c r="M14" s="14">
+        <v>85</v>
+      </c>
+      <c r="N14" s="14">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
+        <v>0</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.33334044460845802</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.35302079083043397</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.32653321093974902</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.303777508895617</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.28853597468229603</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.29131407266003201</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.28888725319231701</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.28336989713790101</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.30472499331039599</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.29529146101167603</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.25257722812496602</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.11054404786863201</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.42756234656319803</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.45616988246272699</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.352448591722066</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.382176755348966</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.36778562739918702</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.28683524921632098</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.41051172238672001</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.295066248081086</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.19101677698606501</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.21835207395095399</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.21654936337456401</v>
+      </c>
+      <c r="N17" s="11">
+        <v>3.1348233936331397E-2</v>
+      </c>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.43612535762249399</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.33783226203810401</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.30062428296249</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.305838175047769</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.299968854075918</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.26549702795996699</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.236378924319601</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.25839318640541897</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.25643735761827802</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.26764721677188302</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.26797750072440901</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.13975635988242899</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.48754108625776199</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.48289607376178001</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.38893812382100101</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.38187070919792698</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.37319086147496999</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.33071315406679502</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.37020462439093998</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.348578850431634</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.25822326466260997</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.28571378046926699</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.32556126194531798</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.18853697852659401</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14">
+        <v>75</v>
+      </c>
+      <c r="D20" s="14">
+        <v>68</v>
+      </c>
+      <c r="E20" s="14">
+        <v>60</v>
+      </c>
+      <c r="F20" s="14">
+        <v>67</v>
+      </c>
+      <c r="G20" s="14">
+        <v>63</v>
+      </c>
+      <c r="H20" s="14">
+        <v>55</v>
+      </c>
+      <c r="I20" s="14">
+        <v>63</v>
+      </c>
+      <c r="J20" s="14">
+        <v>66</v>
+      </c>
+      <c r="K20" s="14">
+        <v>59</v>
+      </c>
+      <c r="L20" s="14">
+        <v>59</v>
+      </c>
+      <c r="M20" s="14">
+        <v>58</v>
+      </c>
+      <c r="N20" s="14">
+        <v>31</v>
+      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.36206346427665898</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.44103281471045103</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.42744054196901099</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.51963538706764201</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.44441741208983898</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.45088379485387597</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.47505490413673301</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.50715310541609704</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.46433488326955502</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.45461872283744897</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.36426276724600798</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.21994955694026</v>
+      </c>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.44845131837312202</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.52408481039799903</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.53695168717753405</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.54722540737838399</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.68755173503357103</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.59522821517076596</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.63736489388053796</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.62419431320819296</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.34449634856863098</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.46301136742152299</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.35360256768352599</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.17509602562576801</v>
+      </c>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.42717255577796698</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.41223047703591298</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.41421121993007898</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.39041929355344501</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.38506352369338898</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.37023067672271498</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.34485195541055702</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.377469664161041</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.36718343050161101</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.35545272974150199</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.343684022364946</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.26988001724037802</v>
+      </c>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.46441874864532101</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.51357963933794204</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.51041983980093897</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.51219471503427405</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.453879659421355</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.44179610189091501</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.45959229306921801</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.45988864525784101</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.38685298455808198</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.38568750619180098</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.41329497692723399</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.33490107205784297</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="14">
+        <v>65</v>
+      </c>
+      <c r="D25" s="14">
+        <v>55</v>
+      </c>
+      <c r="E25" s="14">
+        <v>48</v>
+      </c>
+      <c r="F25" s="14">
+        <v>46</v>
+      </c>
+      <c r="G25" s="14">
+        <v>46</v>
+      </c>
+      <c r="H25" s="14">
+        <v>39</v>
+      </c>
+      <c r="I25" s="14">
+        <v>45</v>
+      </c>
+      <c r="J25" s="14">
+        <v>43</v>
+      </c>
+      <c r="K25" s="14">
+        <v>41</v>
+      </c>
+      <c r="L25" s="14">
+        <v>42</v>
+      </c>
+      <c r="M25" s="14">
+        <v>45</v>
+      </c>
+      <c r="N25" s="14">
+        <v>16</v>
+      </c>
+      <c r="T25" s="11"/>
+      <c r="U25" s="11"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>0</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.34647198154284897</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.42536853783795903</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.45736425810737302</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.46806486717394902</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.49519475608032298</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.47570504591228402</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.51670431781022796</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.48716523200804701</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.44570285805295101</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.43637747459989001</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.37241179292231502</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.26917212395568602</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.27045721503298997</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.35134018450296101</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.38068373998435001</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.403906188988647</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.398287552175633</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.37170959428421202</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.401572837916637</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.42256448874070701</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.43387685792338199</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.39107881784481602</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.35115161095853398</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.23757380991646601</v>
+      </c>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.28510115766021499</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.40695495276316301</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.43608954389931598</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.47821267348091601</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.45945492152480399</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.42475343994641901</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.48624339936437999</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.46793565774446</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.45652010160526801</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.414700056827776</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.367980440817751</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.35778865661444398</v>
+      </c>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.30335819771754102</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.380766957601954</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.37429405179432501</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.44658464735257702</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.45512574029549102</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.54271975921999605</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.45619190249362301</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.43949404424260502</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.46487461489898002</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.45606649060640297</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.32002477627095599</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.27011995692229201</v>
+      </c>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="14">
+        <v>87</v>
+      </c>
+      <c r="D31" s="14">
+        <v>84</v>
+      </c>
+      <c r="E31" s="14">
+        <v>80</v>
+      </c>
+      <c r="F31" s="14">
+        <v>75</v>
+      </c>
+      <c r="G31" s="14">
+        <v>67</v>
+      </c>
+      <c r="H31" s="14">
+        <v>61</v>
+      </c>
+      <c r="I31" s="14">
+        <v>60</v>
+      </c>
+      <c r="J31" s="14">
+        <v>62</v>
+      </c>
+      <c r="K31" s="14">
+        <v>58</v>
+      </c>
+      <c r="L31" s="14">
+        <v>58</v>
+      </c>
+      <c r="M31" s="14">
+        <v>67</v>
+      </c>
+      <c r="N31" s="14">
+        <v>52</v>
+      </c>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.44063891777431802</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.486760302696776</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.50926952529032099</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.57233610679873603</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.56565771820667399</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.57738809285266501</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.59123561188818996</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.57348173521829904</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.54609267878679402</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.529681055666685</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.49352308037048997</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.56314165337945898</v>
+      </c>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.36569276005759199</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.43071066498669602</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.44685617732529598</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.46527840293167899</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.46508554980272798</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.48814302345479699</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.47909576310855301</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.47705591297508598</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.49938311276515601</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.49263147887723102</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.49824474639081101</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.53032641443560302</v>
+      </c>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.39284890326906102</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.45251909303314702</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.46892799423130699</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.50341432328896196</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.54135636667035703</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.47986314669986202</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.53450040574495195</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.56205644528340004</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.55554168741965004</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.51328961670046502</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.47823755344362501</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.49384846052232201</v>
+      </c>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.37979060636996498</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.48179130601893699</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.48600415604493502</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.50444453682356705</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.50833234347313805</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.58183180082729102</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.53076987297504097</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.49979980616974001</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.48419215704935498</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.54664531823044604</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.45311103837875499</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.44969610822317202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="14">
+        <v>66</v>
+      </c>
+      <c r="D36" s="14">
+        <v>73</v>
+      </c>
+      <c r="E36" s="14">
+        <v>71</v>
+      </c>
+      <c r="F36" s="14">
+        <v>60</v>
+      </c>
+      <c r="G36" s="14">
+        <v>58</v>
+      </c>
+      <c r="H36" s="14">
+        <v>50</v>
+      </c>
+      <c r="I36" s="14">
+        <v>52</v>
+      </c>
+      <c r="J36" s="14">
+        <v>52</v>
+      </c>
+      <c r="K36" s="14">
+        <v>47</v>
+      </c>
+      <c r="L36" s="14">
+        <v>47</v>
+      </c>
+      <c r="M36" s="14">
+        <v>49</v>
+      </c>
+      <c r="N36" s="14">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C5:C8">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F8">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M8">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N8">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C13">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="colorScale" priority="121">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E13">
+    <cfRule type="colorScale" priority="120">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
+    <cfRule type="colorScale" priority="119">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G13">
+    <cfRule type="colorScale" priority="118">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H13">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I13">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J13">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K13">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M13">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N13">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27:C30">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D30">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E30">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F30">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G30">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H30">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K30">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L30">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M30">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N30">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C35">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H35">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I35">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J35">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K35">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L35">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M35">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N35">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:C19 C16">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19 D16">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19 E16">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F19 F16">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19 G16">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19 H16">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19 I16">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19 J16">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K19 K16">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L19 L16">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M19 M16">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N19 N16">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23:C24 C21">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24 D21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E24 E21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24 G21">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H24 H21">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I24 I21">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J24 J21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K24 K21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L24 L21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M24 M21">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N24 N21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G19">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K19">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M19">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N19">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C24">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FFE8B1-7160-4B1E-8D0B-05AE36B26A79}">
+  <dimension ref="B3:O36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O36" sqref="B3:O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.33041951375793599</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.34879598776668802</v>
+      </c>
+      <c r="F5" s="11">
+        <v>0.34571795001911998</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.34368054925702202</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.32456658721528803</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0.29182313814910898</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0.30419099308413899</v>
+      </c>
+      <c r="K5" s="11">
+        <v>0.29559124946959398</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0.280799832159638</v>
+      </c>
+      <c r="M5" s="11">
+        <v>0.26211814364465402</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0.23525929804231099</v>
+      </c>
+      <c r="O5" s="11">
+        <v>0.112865199954669</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.29988969746830701</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.32713381465881902</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.324881580265522</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.32681335612303303</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.30792918906758099</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0.27341000422286699</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0.29123849897758802</v>
+      </c>
+      <c r="K6" s="11">
+        <v>0.28749469892788898</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0.27274241060537202</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.26123128951760899</v>
+      </c>
+      <c r="N6" s="11">
+        <v>0.23142680711698399</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.109241745897678</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.29592085879503899</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.310243619161507</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0.30960329859915298</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.320698782501802</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.30006921663133201</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.27115623497803398</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0.28694112105456798</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.29274004090249101</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.28309822639530802</v>
+      </c>
+      <c r="M7" s="11">
+        <v>0.27923507694549399</v>
+      </c>
+      <c r="N7" s="11">
+        <v>0.252883990269621</v>
+      </c>
+      <c r="O7" s="11">
+        <v>0.12786168329616299</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.32540713669660098</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.34385292258549599</v>
+      </c>
+      <c r="F8" s="11">
+        <v>0.34247080091374899</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.33921410918765998</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.32272108937584798</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.29299129413029601</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.30486406448852998</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0.30332307238456502</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0.292411523938017</v>
+      </c>
+      <c r="M8" s="11">
+        <v>0.28436995664738501</v>
+      </c>
+      <c r="N8" s="11">
+        <v>0.25955262264190498</v>
+      </c>
+      <c r="O8" s="11">
+        <v>0.13244564699206501</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="14">
+        <v>140</v>
+      </c>
+      <c r="E9" s="14">
+        <v>140</v>
+      </c>
+      <c r="F9" s="14">
+        <v>140</v>
+      </c>
+      <c r="G9" s="14">
+        <v>140</v>
+      </c>
+      <c r="H9" s="14">
+        <v>140</v>
+      </c>
+      <c r="I9" s="14">
+        <v>140</v>
+      </c>
+      <c r="J9" s="14">
+        <v>140</v>
+      </c>
+      <c r="K9" s="14">
+        <v>140</v>
+      </c>
+      <c r="L9" s="14">
+        <v>140</v>
+      </c>
+      <c r="M9" s="14">
+        <v>140</v>
+      </c>
+      <c r="N9" s="14">
+        <v>140</v>
+      </c>
+      <c r="O9" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.43306960743517797</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.46174531971933103</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0.49157182155518397</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.51550682822161498</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.51842514769818804</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0.52449552476609496</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.53448590359413795</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0.53754883914067697</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0.48373424945246601</v>
+      </c>
+      <c r="M10" s="11">
+        <v>0.49372552533496999</v>
+      </c>
+      <c r="N10" s="11">
+        <v>0.46502266029338302</v>
+      </c>
+      <c r="O10" s="11">
+        <v>0.50465075691247496</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.39622504370798201</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.45334682145004201</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0.46750306499976702</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.48466371581154499</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.49649254065884701</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.50281222779945001</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.50953213441085798</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0.50157897968060405</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0.47389541739104402</v>
+      </c>
+      <c r="M11" s="11">
+        <v>0.48810618407149797</v>
+      </c>
+      <c r="N11" s="11">
+        <v>0.46370333058011598</v>
+      </c>
+      <c r="O11" s="11">
+        <v>0.50495281523489999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.40983737774316598</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.437981963549609</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.44913682054788401</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.449222829436214</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.46590464937113102</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.42315669671168199</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.44183127660428201</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0.46216242255835899</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0.44384086064267397</v>
+      </c>
+      <c r="M12" s="11">
+        <v>0.42136263858150802</v>
+      </c>
+      <c r="N12" s="11">
+        <v>0.40383736567070799</v>
+      </c>
+      <c r="O12" s="11">
+        <v>0.37677404698857803</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.43830248859161802</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.48255609073883199</v>
+      </c>
+      <c r="F13" s="11">
+        <v>0.50678510746694405</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.51708346708194497</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0.50176787291204294</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0.50508206052075699</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.49035774116519998</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0.48376512623977302</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0.45287684389573002</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0.45175226216406</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0.41403836853951997</v>
+      </c>
+      <c r="O13" s="11">
+        <v>0.40582618529660103</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="14">
+        <v>101</v>
+      </c>
+      <c r="E14" s="14">
+        <v>98</v>
+      </c>
+      <c r="F14" s="14">
+        <v>92</v>
+      </c>
+      <c r="G14" s="14">
+        <v>89</v>
+      </c>
+      <c r="H14" s="14">
+        <v>88</v>
+      </c>
+      <c r="I14" s="14">
+        <v>79</v>
+      </c>
+      <c r="J14" s="14">
+        <v>85</v>
+      </c>
+      <c r="K14" s="14">
+        <v>85</v>
+      </c>
+      <c r="L14" s="14">
+        <v>88</v>
+      </c>
+      <c r="M14" s="14">
+        <v>85</v>
+      </c>
+      <c r="N14" s="14">
+        <v>85</v>
+      </c>
+      <c r="O14" s="14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.35246114640627701</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.33197822095425999</v>
+      </c>
+      <c r="F16" s="11">
+        <v>0.31269111682990403</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.32065880490196502</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.314302878672715</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0.256622243350067</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0.28659672084343302</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0.27793490294465001</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0.25528745497843802</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0.25119365651115799</v>
+      </c>
+      <c r="N16" s="11">
+        <v>0.243054604577255</v>
+      </c>
+      <c r="O16" s="11">
+        <v>0.136823649337183</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.33381920050465602</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.32255865637824099</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0.30175170029307502</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.31091572524342098</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0.30630993925224698</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0.248699145446483</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0.28508281161676802</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0.28318359397067999</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0.25557572603151502</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0.258519810690159</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.24618293124561</v>
+      </c>
+      <c r="O17" s="11">
+        <v>0.14168357786059099</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.35026989601737402</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.33501435158384901</v>
+      </c>
+      <c r="F18" s="11">
+        <v>0.32805527646170302</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.35229756792049499</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.32934796073792399</v>
+      </c>
+      <c r="I18" s="11">
+        <v>0.27907094694607598</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.31496264036261501</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0.31902093566899198</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0.30495864889590701</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0.32140448358932</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.31539980051952898</v>
+      </c>
+      <c r="O18" s="11">
+        <v>0.19380044694245599</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0.36280067430934498</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.35281515605464803</v>
+      </c>
+      <c r="F19" s="11">
+        <v>0.33152565655557997</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0.34129528898265199</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.33119595413427599</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.28718514019497399</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.31454659295556497</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0.309372902867594</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0.29263143980857997</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0.30607145810589997</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.30757454986687399</v>
+      </c>
+      <c r="O19" s="11">
+        <v>0.19092951902278801</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="14">
+        <v>75</v>
+      </c>
+      <c r="E20" s="14">
+        <v>68</v>
+      </c>
+      <c r="F20" s="14">
+        <v>67</v>
+      </c>
+      <c r="G20" s="14">
+        <v>78</v>
+      </c>
+      <c r="H20" s="14">
+        <v>84</v>
+      </c>
+      <c r="I20" s="14">
+        <v>80</v>
+      </c>
+      <c r="J20" s="14">
+        <v>76</v>
+      </c>
+      <c r="K20" s="14">
+        <v>88</v>
+      </c>
+      <c r="L20" s="14">
+        <v>82</v>
+      </c>
+      <c r="M20" s="14">
+        <v>82</v>
+      </c>
+      <c r="N20" s="14">
+        <v>74</v>
+      </c>
+      <c r="O20" s="14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.457510748497652</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.537709154844216</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0.50324775000628996</v>
+      </c>
+      <c r="G21" s="11">
+        <v>0.52163035427275894</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0.58615347212221403</v>
+      </c>
+      <c r="I21" s="11">
+        <v>0.52060910949496797</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0.53729523069271801</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0.54858642349860298</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.46898668193159099</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0.51162245976719201</v>
+      </c>
+      <c r="N21" s="11">
+        <v>0.46493932294308499</v>
+      </c>
+      <c r="O21" s="11">
+        <v>0.49103933879143002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.432401991724846</v>
+      </c>
+      <c r="E22" s="11">
+        <v>0.51851007322369003</v>
+      </c>
+      <c r="F22" s="11">
+        <v>0.491032102533976</v>
+      </c>
+      <c r="G22" s="11">
+        <v>0.50978880943929195</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0.56880176324199605</v>
+      </c>
+      <c r="I22" s="11">
+        <v>0.50311459271251202</v>
+      </c>
+      <c r="J22" s="11">
+        <v>0.52953174798871205</v>
+      </c>
+      <c r="K22" s="11">
+        <v>0.55577927574792996</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.472233910384665</v>
+      </c>
+      <c r="M22" s="11">
+        <v>0.518495120459737</v>
+      </c>
+      <c r="N22" s="11">
+        <v>0.47052771079614603</v>
+      </c>
+      <c r="O22" s="11">
+        <v>0.501172526939063</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.45684028432968798</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.53087916874852803</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0.51057537439104195</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.52484977184461901</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0.56856955737956305</v>
+      </c>
+      <c r="I23" s="11">
+        <v>0.4783058053764</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0.51801345855191505</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0.54993968205494803</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.48577707654861901</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0.52763587251831501</v>
+      </c>
+      <c r="N23" s="11">
+        <v>0.46985437496489402</v>
+      </c>
+      <c r="O23" s="11">
+        <v>0.47147335511477401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.47023851064369498</v>
+      </c>
+      <c r="E24" s="11">
+        <v>0.55616681425653103</v>
+      </c>
+      <c r="F24" s="11">
+        <v>0.51642256257031505</v>
+      </c>
+      <c r="G24" s="11">
+        <v>0.53294600152675597</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0.58625140383021201</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.53392198943100999</v>
+      </c>
+      <c r="J24" s="11">
+        <v>0.54334495164246899</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.56099975643512201</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.48945715611349599</v>
+      </c>
+      <c r="M24" s="11">
+        <v>0.52981300124355202</v>
+      </c>
+      <c r="N24" s="11">
+        <v>0.47903492589604602</v>
+      </c>
+      <c r="O24" s="11">
+        <v>0.51842123921585503</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="14">
+        <v>55</v>
+      </c>
+      <c r="E25" s="14">
+        <v>40</v>
+      </c>
+      <c r="F25" s="14">
+        <v>39</v>
+      </c>
+      <c r="G25" s="14">
+        <v>45</v>
+      </c>
+      <c r="H25" s="14">
+        <v>40</v>
+      </c>
+      <c r="I25" s="14">
+        <v>36</v>
+      </c>
+      <c r="J25" s="14">
+        <v>38</v>
+      </c>
+      <c r="K25" s="14">
+        <v>42</v>
+      </c>
+      <c r="L25" s="14">
+        <v>41</v>
+      </c>
+      <c r="M25" s="14">
+        <v>37</v>
+      </c>
+      <c r="N25" s="14">
+        <v>36</v>
+      </c>
+      <c r="O25" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="15">
+        <v>0</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="11">
+        <v>0.30498686070215802</v>
+      </c>
+      <c r="E27" s="11">
+        <v>0.36467943420064702</v>
+      </c>
+      <c r="F27" s="11">
+        <v>0.37603024897360698</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.37264338892951199</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0.33996215002914798</v>
+      </c>
+      <c r="I27" s="11">
+        <v>0.33875766454783302</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0.32508419136997802</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0.32547122051180599</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0.316869055070989</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0.27756310821269897</v>
+      </c>
+      <c r="N27" s="11">
+        <v>0.22651910586676799</v>
+      </c>
+      <c r="O27" s="11">
+        <v>8.8212302763967299E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.26074027088790402</v>
+      </c>
+      <c r="E28" s="11">
+        <v>0.33145479747936502</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0.34611037421283602</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.34681360142319001</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0.31035806379058301</v>
+      </c>
+      <c r="I28" s="11">
+        <v>0.30635781592471201</v>
+      </c>
+      <c r="J28" s="11">
+        <v>0.29854837771856202</v>
+      </c>
+      <c r="K28" s="11">
+        <v>0.29479041500932102</v>
+      </c>
+      <c r="L28" s="11">
+        <v>0.29701255086496298</v>
+      </c>
+      <c r="M28" s="11">
+        <v>0.265064759584003</v>
+      </c>
+      <c r="N28" s="11">
+        <v>0.21488206188185899</v>
+      </c>
+      <c r="O28" s="11">
+        <v>7.5859570979317198E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.23321043123080801</v>
+      </c>
+      <c r="E29" s="11">
+        <v>0.286849038540407</v>
+      </c>
+      <c r="F29" s="11">
+        <v>0.29266792165681199</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0.280945471813769</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0.25615110047144202</v>
+      </c>
+      <c r="I29" s="11">
+        <v>0.260603285687311</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0.25366556687626202</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0.248264680528411</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0.252192111825497</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0.219616260655946</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0.182790506050026</v>
+      </c>
+      <c r="O29" s="11">
+        <v>6.0011651138382201E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.28226074714343502</v>
+      </c>
+      <c r="E30" s="11">
+        <v>0.33538859097574097</v>
+      </c>
+      <c r="F30" s="11">
+        <v>0.35251634436576701</v>
+      </c>
+      <c r="G30" s="11">
+        <v>0.33659585073589599</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0.31000879223820599</v>
+      </c>
+      <c r="I30" s="11">
+        <v>0.30073283271072598</v>
+      </c>
+      <c r="J30" s="11">
+        <v>0.293366061933925</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0.29308489772097601</v>
+      </c>
+      <c r="L30" s="11">
+        <v>0.29210060839687602</v>
+      </c>
+      <c r="M30" s="11">
+        <v>0.25368852355086302</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0.205709855753303</v>
+      </c>
+      <c r="O30" s="11">
+        <v>7.2266590264798494E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="14">
+        <v>65</v>
+      </c>
+      <c r="E31" s="14">
+        <v>72</v>
+      </c>
+      <c r="F31" s="14">
+        <v>73</v>
+      </c>
+      <c r="G31" s="14">
+        <v>62</v>
+      </c>
+      <c r="H31" s="14">
+        <v>56</v>
+      </c>
+      <c r="I31" s="14">
+        <v>60</v>
+      </c>
+      <c r="J31" s="14">
+        <v>64</v>
+      </c>
+      <c r="K31" s="14">
+        <v>52</v>
+      </c>
+      <c r="L31" s="14">
+        <v>58</v>
+      </c>
+      <c r="M31" s="14">
+        <v>58</v>
+      </c>
+      <c r="N31" s="14">
+        <v>66</v>
+      </c>
+      <c r="O31" s="14">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.45391998650648402</v>
+      </c>
+      <c r="E32" s="11">
+        <v>0.498443251959308</v>
+      </c>
+      <c r="F32" s="11">
+        <v>0.54531420941133102</v>
+      </c>
+      <c r="G32" s="11">
+        <v>0.57741826585640399</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0.60485947421646402</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0.69806448845189295</v>
+      </c>
+      <c r="J32" s="11">
+        <v>0.62079070871277697</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0.63806412761970299</v>
+      </c>
+      <c r="L32" s="11">
+        <v>0.69506354174192697</v>
+      </c>
+      <c r="M32" s="11">
+        <v>0.58317478220108798</v>
+      </c>
+      <c r="N32" s="11">
+        <v>0.512868285699565</v>
+      </c>
+      <c r="O32" s="11">
+        <v>0.62902754666451</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.39863512752733199</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.46765555394360903</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.51003581881956805</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.53846660865586105</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.55805186199641599</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.63559174362068005</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.57831516048638298</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.59091647352055199</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.65816948476808401</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.558814982963038</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.48865864276750398</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0.560514582764994</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.37602695803264002</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.41551260675690999</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.44118720741345302</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.45732119649095798</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.48236614786423099</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.569139361968521</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.50561303444754202</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.537594389837043</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.58450739385230699</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.482709522134805</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.43255972739412302</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0.46570589483845398</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="13"/>
+      <c r="C35" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.42944500587928203</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.47874182349091798</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.52804402904519998</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.54398741927614203</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.57765761550833306</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.65526456886765105</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.58139638484135503</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.60500021771478496</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.66958324403830805</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.54917887656723297</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.47681543294612799</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0.56506939348172003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C36" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D36" s="14">
+        <v>39</v>
+      </c>
+      <c r="E36" s="14">
+        <v>47</v>
+      </c>
+      <c r="F36" s="14">
+        <v>48</v>
+      </c>
+      <c r="G36" s="14">
+        <v>37</v>
+      </c>
+      <c r="H36" s="14">
+        <v>29</v>
+      </c>
+      <c r="I36" s="14">
+        <v>26</v>
+      </c>
+      <c r="J36" s="14">
+        <v>31</v>
+      </c>
+      <c r="K36" s="14">
+        <v>23</v>
+      </c>
+      <c r="L36" s="14">
+        <v>24</v>
+      </c>
+      <c r="M36" s="14">
+        <v>26</v>
+      </c>
+      <c r="N36" s="14">
+        <v>27</v>
+      </c>
+      <c r="O36" s="14">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5:D8">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E8">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F8">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G8">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H8">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I8">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J8">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K8">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L8">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M8">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N8">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O8">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D13">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10:E13">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F13">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G13">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H13">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10:I13">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10:J13">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10:K13">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10:L13">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M13">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:N13">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10:O13">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:D30">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E30">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F30">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27:G30">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27:H30">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27:I30">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J30">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K30">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L30">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M30">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N30">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O30">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D35">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E35">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F35">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G35">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H35">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I35">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J35">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K35">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L35">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M35">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N35">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O35">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19 D16">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E19 E16">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F19 F16">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G19 G16">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18:H19 H16">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I19 I16">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J19 J16">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18:K19 K16">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18:L19 L16">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M19 M16">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:N19 N16">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O19 O16">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24 D21">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E24 E21">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F24 F21">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G24 G21">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H24 H21">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I24 I21">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J24 J21">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K24 K21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L24 L21">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M24 M21">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N24 N21">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O24 O21">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D19">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E19">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F19">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G19">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H19">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I19">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J19">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K19">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L19">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M19">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N19">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:E24">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21:F24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21:G24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21:H24">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21:I24">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21:J24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21:K24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21:M24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O21:O24">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/analise.xlsx
+++ b/analise.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guili\Documents\GitHub\Research_UFRGS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB42F9-1B14-4F3B-B8C8-BE187E6C0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B5B02A-0C83-4CFD-A207-E767435A802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{D6BB0984-3C45-4374-BF89-AEF1A739B404}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D6BB0984-3C45-4374-BF89-AEF1A739B404}"/>
   </bookViews>
   <sheets>
     <sheet name="compara_benchmark" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelas" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
+    <sheet name="R² score" sheetId="4" r:id="rId4"/>
+    <sheet name="RRMSE" sheetId="5" r:id="rId5"/>
+    <sheet name="GW" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_metadados.xlsxTabela11" hidden="1">[1]!Tabela1</definedName>
@@ -107,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="75">
   <si>
     <t>M=100</t>
   </si>
@@ -313,28 +315,34 @@
     <t>(c) linear more accurate at least once</t>
   </si>
   <si>
-    <t>linear</t>
+    <t>(a) All cases</t>
   </si>
   <si>
-    <t>bols</t>
+    <t>(b) Splines more accurate on average</t>
   </si>
   <si>
-    <t>bspline</t>
+    <t>(c) Linear more accurate on average</t>
   </si>
   <si>
-    <t>tsboost</t>
+    <t>Bspline*</t>
   </si>
   <si>
-    <t>(b) splines more accurate on average</t>
+    <t>TSBoost*</t>
   </si>
   <si>
-    <t>(c) linear more accurate on average</t>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>p-value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -409,12 +417,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -448,6 +465,27 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4092,15 +4130,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2FFE8B1-7160-4B1E-8D0B-05AE36B26A79}">
-  <dimension ref="B3:O36"/>
+  <dimension ref="B3:S54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O36" sqref="B3:O36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
@@ -4144,17 +4182,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D4" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="15">
         <v>0</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D5" s="11">
         <v>0.33041951375793599</v>
@@ -4192,11 +4230,12 @@
       <c r="O5" s="11">
         <v>0.112865199954669</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S5" s="13"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
       <c r="C6" s="13" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D6" s="11">
         <v>0.29988969746830701</v>
@@ -4234,11 +4273,12 @@
       <c r="O6" s="11">
         <v>0.109241745897678</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
       <c r="C7" s="13" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D7" s="11">
         <v>0.29592085879503899</v>
@@ -4276,11 +4316,12 @@
       <c r="O7" s="11">
         <v>0.12786168329616299</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S7" s="13"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
       <c r="C8" s="13" t="s">
-        <v>71</v>
+        <v>2</v>
       </c>
       <c r="D8" s="11">
         <v>0.32540713669660098</v>
@@ -4318,447 +4359,473 @@
       <c r="O8" s="11">
         <v>0.13244564699206501</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="S8" s="13"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
       <c r="C9" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="14">
-        <v>140</v>
-      </c>
-      <c r="E9" s="14">
-        <v>140</v>
-      </c>
-      <c r="F9" s="14">
-        <v>140</v>
-      </c>
-      <c r="G9" s="14">
-        <v>140</v>
-      </c>
-      <c r="H9" s="14">
-        <v>140</v>
-      </c>
-      <c r="I9" s="14">
-        <v>140</v>
-      </c>
-      <c r="J9" s="14">
-        <v>140</v>
-      </c>
-      <c r="K9" s="14">
-        <v>140</v>
-      </c>
-      <c r="L9" s="14">
-        <v>140</v>
-      </c>
-      <c r="M9" s="14">
-        <v>140</v>
-      </c>
-      <c r="N9" s="14">
-        <v>140</v>
-      </c>
-      <c r="O9" s="14">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>0.1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.30244183835291899</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.32031264853185099</v>
+      </c>
+      <c r="F9" s="11">
+        <v>0.31785149569395399</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.33016555494419397</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.31076256575288103</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0.28239641847532398</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.29677817453669803</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0.29943240464387599</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0.28758407214767601</v>
+      </c>
+      <c r="M9" s="11">
+        <v>0.281262736223516</v>
+      </c>
+      <c r="N9" s="11">
+        <v>0.25519738832365502</v>
+      </c>
+      <c r="O9" s="11">
+        <v>0.13179354999037399</v>
+      </c>
+      <c r="S9" s="13"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
       <c r="C10" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="11">
-        <v>0.43306960743517797</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0.46174531971933103</v>
+        <v>0.32615140926700797</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.34472710323127198</v>
       </c>
       <c r="F10" s="11">
-        <v>0.49157182155518397</v>
+        <v>0.344752610810586</v>
       </c>
       <c r="G10" s="11">
-        <v>0.51550682822161498</v>
+        <v>0.33970993081522799</v>
       </c>
       <c r="H10" s="11">
-        <v>0.51842514769818804</v>
+        <v>0.32307721091966801</v>
       </c>
       <c r="I10" s="11">
-        <v>0.52449552476609496</v>
+        <v>0.29380049694034199</v>
       </c>
       <c r="J10" s="11">
-        <v>0.53448590359413795</v>
+        <v>0.306478719197398</v>
       </c>
       <c r="K10" s="11">
-        <v>0.53754883914067697</v>
+        <v>0.304189896826981</v>
       </c>
       <c r="L10" s="11">
-        <v>0.48373424945246601</v>
+        <v>0.29215672886501998</v>
       </c>
       <c r="M10" s="11">
-        <v>0.49372552533496999</v>
+        <v>0.284410899034721</v>
       </c>
       <c r="N10" s="11">
-        <v>0.46502266029338302</v>
+        <v>0.26128067514481501</v>
       </c>
       <c r="O10" s="11">
-        <v>0.50465075691247496</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+        <v>0.13277686723219101</v>
+      </c>
+      <c r="S10" s="13"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="15"/>
       <c r="C11" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D11" s="11">
-        <v>0.39622504370798201</v>
+        <v>0.24794413879496199</v>
       </c>
       <c r="E11" s="11">
-        <v>0.45334682145004201</v>
+        <v>0.26434006534876597</v>
       </c>
       <c r="F11" s="11">
-        <v>0.46750306499976702</v>
+        <v>0.25745976739651699</v>
       </c>
       <c r="G11" s="11">
-        <v>0.48466371581154499</v>
+        <v>0.25952010112568602</v>
       </c>
       <c r="H11" s="11">
-        <v>0.49649254065884701</v>
+        <v>0.24475547533070099</v>
       </c>
       <c r="I11" s="11">
-        <v>0.50281222779945001</v>
+        <v>0.209949070042174</v>
       </c>
       <c r="J11" s="11">
-        <v>0.50953213441085798</v>
+        <v>0.232774786839028</v>
       </c>
       <c r="K11" s="11">
-        <v>0.50157897968060405</v>
+        <v>0.240113048057425</v>
       </c>
       <c r="L11" s="11">
-        <v>0.47389541739104402</v>
+        <v>0.223796501904058</v>
       </c>
       <c r="M11" s="11">
-        <v>0.48810618407149797</v>
+        <v>0.21167549977689301</v>
       </c>
       <c r="N11" s="11">
-        <v>0.46370333058011598</v>
+        <v>0.19789777678582099</v>
       </c>
       <c r="O11" s="11">
-        <v>0.50495281523489999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+        <v>9.2536933966304302E-2</v>
+      </c>
+      <c r="S11" s="13"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="11">
-        <v>0.40983737774316598</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.437981963549609</v>
-      </c>
-      <c r="F12" s="11">
-        <v>0.44913682054788401</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.449222829436214</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0.46590464937113102</v>
-      </c>
-      <c r="I12" s="11">
-        <v>0.42315669671168199</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.44183127660428201</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0.46216242255835899</v>
-      </c>
-      <c r="L12" s="11">
-        <v>0.44384086064267397</v>
-      </c>
-      <c r="M12" s="11">
-        <v>0.42136263858150802</v>
-      </c>
-      <c r="N12" s="11">
-        <v>0.40383736567070799</v>
-      </c>
-      <c r="O12" s="11">
-        <v>0.37677404698857803</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="D12" s="14">
+        <v>140</v>
+      </c>
+      <c r="E12" s="14">
+        <v>140</v>
+      </c>
+      <c r="F12" s="14">
+        <v>140</v>
+      </c>
+      <c r="G12" s="14">
+        <v>140</v>
+      </c>
+      <c r="H12" s="14">
+        <v>140</v>
+      </c>
+      <c r="I12" s="14">
+        <v>140</v>
+      </c>
+      <c r="J12" s="14">
+        <v>140</v>
+      </c>
+      <c r="K12" s="14">
+        <v>140</v>
+      </c>
+      <c r="L12" s="14">
+        <v>140</v>
+      </c>
+      <c r="M12" s="14">
+        <v>140</v>
+      </c>
+      <c r="N12" s="14">
+        <v>140</v>
+      </c>
+      <c r="O12" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>0.1</v>
+      </c>
       <c r="C13" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D13" s="11">
-        <v>0.43830248859161802</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.48255609073883199</v>
+        <v>0.43306960743517797</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.46174531971933103</v>
       </c>
       <c r="F13" s="11">
-        <v>0.50678510746694405</v>
+        <v>0.49157182155518397</v>
       </c>
       <c r="G13" s="11">
-        <v>0.51708346708194497</v>
+        <v>0.51550682822161498</v>
       </c>
       <c r="H13" s="11">
-        <v>0.50176787291204294</v>
+        <v>0.51842514769818804</v>
       </c>
       <c r="I13" s="11">
-        <v>0.50508206052075699</v>
+        <v>0.52449552476609496</v>
       </c>
       <c r="J13" s="11">
-        <v>0.49035774116519998</v>
+        <v>0.53448590359413795</v>
       </c>
       <c r="K13" s="11">
-        <v>0.48376512623977302</v>
+        <v>0.53754883914067697</v>
       </c>
       <c r="L13" s="11">
-        <v>0.45287684389573002</v>
+        <v>0.48373424945246601</v>
       </c>
       <c r="M13" s="11">
-        <v>0.45175226216406</v>
+        <v>0.49372552533496999</v>
       </c>
       <c r="N13" s="11">
-        <v>0.41403836853951997</v>
+        <v>0.46502266029338302</v>
       </c>
       <c r="O13" s="11">
-        <v>0.40582618529660103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+        <v>0.50465075691247496</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="14">
-        <v>101</v>
-      </c>
-      <c r="E14" s="14">
-        <v>98</v>
-      </c>
-      <c r="F14" s="14">
-        <v>92</v>
-      </c>
-      <c r="G14" s="14">
-        <v>89</v>
-      </c>
-      <c r="H14" s="14">
-        <v>88</v>
-      </c>
-      <c r="I14" s="14">
-        <v>79</v>
-      </c>
-      <c r="J14" s="14">
-        <v>85</v>
-      </c>
-      <c r="K14" s="14">
-        <v>85</v>
-      </c>
-      <c r="L14" s="14">
-        <v>88</v>
-      </c>
-      <c r="M14" s="14">
-        <v>85</v>
-      </c>
-      <c r="N14" s="14">
-        <v>85</v>
-      </c>
-      <c r="O14" s="14">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.39622504370798201</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.45334682145004201</v>
+      </c>
+      <c r="F14" s="11">
+        <v>0.46750306499976702</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.48466371581154499</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0.49649254065884701</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0.50281222779945001</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.50953213441085798</v>
+      </c>
+      <c r="K14" s="11">
+        <v>0.50157897968060405</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0.47389541739104402</v>
+      </c>
+      <c r="M14" s="11">
+        <v>0.48810618407149797</v>
+      </c>
+      <c r="N14" s="11">
+        <v>0.46370333058011598</v>
+      </c>
+      <c r="O14" s="11">
+        <v>0.50495281523489999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="15">
-        <v>0</v>
-      </c>
+      <c r="C15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.40983737774316598</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.437981963549609</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0.44913682054788401</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.449222829436214</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0.46590464937113102</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0.42315669671168199</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.44183127660428201</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0.46216242255835899</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0.44384086064267397</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0.42136263858150802</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0.40383736567070799</v>
+      </c>
+      <c r="O15" s="11">
+        <v>0.37677404698857803</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
       <c r="C16" s="13" t="s">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="D16" s="11">
-        <v>0.35246114640627701</v>
+        <v>0.43830248859161802</v>
       </c>
       <c r="E16" s="11">
-        <v>0.33197822095425999</v>
+        <v>0.48255609073883199</v>
       </c>
       <c r="F16" s="11">
-        <v>0.31269111682990403</v>
+        <v>0.50678510746694405</v>
       </c>
       <c r="G16" s="11">
-        <v>0.32065880490196502</v>
+        <v>0.51708346708194497</v>
       </c>
       <c r="H16" s="11">
-        <v>0.314302878672715</v>
+        <v>0.50176787291204294</v>
       </c>
       <c r="I16" s="11">
-        <v>0.256622243350067</v>
+        <v>0.50508206052075699</v>
       </c>
       <c r="J16" s="11">
-        <v>0.28659672084343302</v>
+        <v>0.49035774116519998</v>
       </c>
       <c r="K16" s="11">
-        <v>0.27793490294465001</v>
+        <v>0.48376512623977302</v>
       </c>
       <c r="L16" s="11">
-        <v>0.25528745497843802</v>
+        <v>0.45287684389573002</v>
       </c>
       <c r="M16" s="11">
-        <v>0.25119365651115799</v>
+        <v>0.45175226216406</v>
       </c>
       <c r="N16" s="11">
-        <v>0.243054604577255</v>
+        <v>0.41403836853951997</v>
       </c>
       <c r="O16" s="11">
-        <v>0.136823649337183</v>
+        <v>0.40582618529660103</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="15"/>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="11">
-        <v>0.33381920050465602</v>
+        <v>0.411091592023137</v>
       </c>
       <c r="E17" s="11">
-        <v>0.32255865637824099</v>
+        <v>0.442613448409587</v>
       </c>
       <c r="F17" s="11">
-        <v>0.30175170029307502</v>
+        <v>0.45551562782912602</v>
       </c>
       <c r="G17" s="11">
-        <v>0.31091572524342098</v>
+        <v>0.45074440027826801</v>
       </c>
       <c r="H17" s="11">
-        <v>0.30630993925224698</v>
+        <v>0.47027889076479101</v>
       </c>
       <c r="I17" s="11">
-        <v>0.248699145446483</v>
+        <v>0.42457130331381499</v>
       </c>
       <c r="J17" s="11">
-        <v>0.28508281161676802</v>
+        <v>0.45059802725026299</v>
       </c>
       <c r="K17" s="11">
-        <v>0.28318359397067999</v>
+        <v>0.46772531350431501</v>
       </c>
       <c r="L17" s="11">
-        <v>0.25557572603151502</v>
+        <v>0.42989655262837201</v>
       </c>
       <c r="M17" s="11">
-        <v>0.258519810690159</v>
+        <v>0.42235158014961999</v>
       </c>
       <c r="N17" s="11">
-        <v>0.24618293124561</v>
+        <v>0.39709128791411902</v>
       </c>
       <c r="O17" s="11">
-        <v>0.14168357786059099</v>
+        <v>0.36363791764711301</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D18" s="11">
-        <v>0.35026989601737402</v>
+        <v>0.43523519395593002</v>
       </c>
       <c r="E18" s="11">
-        <v>0.33501435158384901</v>
+        <v>0.479146562112997</v>
       </c>
       <c r="F18" s="11">
-        <v>0.32805527646170302</v>
+        <v>0.50295430855679202</v>
       </c>
       <c r="G18" s="11">
-        <v>0.35229756792049499</v>
+        <v>0.51217855149853597</v>
       </c>
       <c r="H18" s="11">
-        <v>0.32934796073792399</v>
+        <v>0.49737297469094099</v>
       </c>
       <c r="I18" s="11">
-        <v>0.27907094694607598</v>
+        <v>0.51174857467891699</v>
       </c>
       <c r="J18" s="11">
-        <v>0.31496264036261501</v>
+        <v>0.49723779075605601</v>
       </c>
       <c r="K18" s="11">
-        <v>0.31902093566899198</v>
+        <v>0.47989684555887702</v>
       </c>
       <c r="L18" s="11">
-        <v>0.30495864889590701</v>
+        <v>0.46104075156830099</v>
       </c>
       <c r="M18" s="11">
-        <v>0.32140448358932</v>
+        <v>0.45589838966057</v>
       </c>
       <c r="N18" s="11">
-        <v>0.31539980051952898</v>
+        <v>0.41073899034940398</v>
       </c>
       <c r="O18" s="11">
-        <v>0.19380044694245599</v>
+        <v>0.40451923604705298</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="15"/>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" s="11">
-        <v>0.36280067430934498</v>
+        <v>0.37557531877350597</v>
       </c>
       <c r="E19" s="11">
-        <v>0.35281515605464803</v>
+        <v>0.41730091348843601</v>
       </c>
       <c r="F19" s="11">
-        <v>0.33152565655557997</v>
+        <v>0.42320635552298003</v>
       </c>
       <c r="G19" s="11">
-        <v>0.34129528898265199</v>
+        <v>0.42154769365010503</v>
       </c>
       <c r="H19" s="11">
-        <v>0.33119595413427599</v>
+        <v>0.40042727109839898</v>
       </c>
       <c r="I19" s="11">
-        <v>0.28718514019497399</v>
+        <v>0.39408457582816098</v>
       </c>
       <c r="J19" s="11">
-        <v>0.31454659295556497</v>
+        <v>0.401146739301872</v>
       </c>
       <c r="K19" s="11">
-        <v>0.309372902867594</v>
+        <v>0.39436629428971798</v>
       </c>
       <c r="L19" s="11">
-        <v>0.29263143980857997</v>
+        <v>0.39641326698523899</v>
       </c>
       <c r="M19" s="11">
-        <v>0.30607145810589997</v>
+        <v>0.36800014400446701</v>
       </c>
       <c r="N19" s="11">
-        <v>0.30757454986687399</v>
+        <v>0.34490496511408097</v>
       </c>
       <c r="O19" s="11">
-        <v>0.19092951902278801</v>
+        <v>0.322419836980676</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -4767,1057 +4834,5032 @@
         <v>64</v>
       </c>
       <c r="D20" s="14">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E20" s="14">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F20" s="14">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G20" s="14">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H20" s="14">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I20" s="14">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J20" s="14">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K20" s="14">
+        <v>85</v>
+      </c>
+      <c r="L20" s="14">
         <v>88</v>
       </c>
-      <c r="L20" s="14">
-        <v>82</v>
-      </c>
       <c r="M20" s="14">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N20" s="14">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="O20" s="14">
-        <v>71</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.457510748497652</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.537709154844216</v>
-      </c>
-      <c r="F21" s="11">
-        <v>0.50324775000628996</v>
-      </c>
-      <c r="G21" s="11">
-        <v>0.52163035427275894</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0.58615347212221403</v>
-      </c>
-      <c r="I21" s="11">
-        <v>0.52060910949496797</v>
-      </c>
-      <c r="J21" s="11">
-        <v>0.53729523069271801</v>
-      </c>
-      <c r="K21" s="11">
-        <v>0.54858642349860298</v>
-      </c>
-      <c r="L21" s="11">
-        <v>0.46898668193159099</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0.51162245976719201</v>
-      </c>
-      <c r="N21" s="11">
-        <v>0.46493932294308499</v>
-      </c>
-      <c r="O21" s="11">
-        <v>0.49103933879143002</v>
-      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="15"/>
+      <c r="B22" s="15">
+        <v>0</v>
+      </c>
       <c r="C22" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D22" s="11">
-        <v>0.432401991724846</v>
+        <v>0.35246114640627701</v>
       </c>
       <c r="E22" s="11">
-        <v>0.51851007322369003</v>
+        <v>0.33197822095425999</v>
       </c>
       <c r="F22" s="11">
-        <v>0.491032102533976</v>
+        <v>0.31269111682990403</v>
       </c>
       <c r="G22" s="11">
-        <v>0.50978880943929195</v>
+        <v>0.32065880490196502</v>
       </c>
       <c r="H22" s="11">
-        <v>0.56880176324199605</v>
+        <v>0.314302878672715</v>
       </c>
       <c r="I22" s="11">
-        <v>0.50311459271251202</v>
+        <v>0.256622243350067</v>
       </c>
       <c r="J22" s="11">
-        <v>0.52953174798871205</v>
+        <v>0.28659672084343302</v>
       </c>
       <c r="K22" s="11">
-        <v>0.55577927574792996</v>
+        <v>0.27793490294465001</v>
       </c>
       <c r="L22" s="11">
-        <v>0.472233910384665</v>
+        <v>0.25528745497843802</v>
       </c>
       <c r="M22" s="11">
-        <v>0.518495120459737</v>
+        <v>0.25119365651115799</v>
       </c>
       <c r="N22" s="11">
-        <v>0.47052771079614603</v>
+        <v>0.243054604577255</v>
       </c>
       <c r="O22" s="11">
-        <v>0.501172526939063</v>
+        <v>0.136823649337183</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="15"/>
       <c r="C23" s="13" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
       <c r="D23" s="11">
-        <v>0.45684028432968798</v>
+        <v>0.33381920050465602</v>
       </c>
       <c r="E23" s="11">
-        <v>0.53087916874852803</v>
+        <v>0.32255865637824099</v>
       </c>
       <c r="F23" s="11">
-        <v>0.51057537439104195</v>
+        <v>0.30175170029307502</v>
       </c>
       <c r="G23" s="11">
-        <v>0.52484977184461901</v>
+        <v>0.31091572524342098</v>
       </c>
       <c r="H23" s="11">
-        <v>0.56856955737956305</v>
+        <v>0.30630993925224698</v>
       </c>
       <c r="I23" s="11">
-        <v>0.4783058053764</v>
+        <v>0.248699145446483</v>
       </c>
       <c r="J23" s="11">
-        <v>0.51801345855191505</v>
+        <v>0.28508281161676802</v>
       </c>
       <c r="K23" s="11">
-        <v>0.54993968205494803</v>
+        <v>0.28318359397067999</v>
       </c>
       <c r="L23" s="11">
-        <v>0.48577707654861901</v>
+        <v>0.25557572603151502</v>
       </c>
       <c r="M23" s="11">
-        <v>0.52763587251831501</v>
+        <v>0.258519810690159</v>
       </c>
       <c r="N23" s="11">
-        <v>0.46985437496489402</v>
+        <v>0.24618293124561</v>
       </c>
       <c r="O23" s="11">
-        <v>0.47147335511477401</v>
+        <v>0.14168357786059099</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="15"/>
       <c r="C24" s="13" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D24" s="11">
-        <v>0.47023851064369498</v>
+        <v>0.35026989601737402</v>
       </c>
       <c r="E24" s="11">
-        <v>0.55616681425653103</v>
+        <v>0.33501435158384901</v>
       </c>
       <c r="F24" s="11">
-        <v>0.51642256257031505</v>
+        <v>0.32805527646170302</v>
       </c>
       <c r="G24" s="11">
-        <v>0.53294600152675597</v>
+        <v>0.35229756792049499</v>
       </c>
       <c r="H24" s="11">
-        <v>0.58625140383021201</v>
+        <v>0.32934796073792399</v>
       </c>
       <c r="I24" s="11">
-        <v>0.53392198943100999</v>
+        <v>0.27907094694607598</v>
       </c>
       <c r="J24" s="11">
-        <v>0.54334495164246899</v>
+        <v>0.31496264036261501</v>
       </c>
       <c r="K24" s="11">
-        <v>0.56099975643512201</v>
+        <v>0.31902093566899198</v>
       </c>
       <c r="L24" s="11">
-        <v>0.48945715611349599</v>
+        <v>0.30495864889590701</v>
       </c>
       <c r="M24" s="11">
-        <v>0.52981300124355202</v>
+        <v>0.32140448358932</v>
       </c>
       <c r="N24" s="11">
-        <v>0.47903492589604602</v>
+        <v>0.31539980051952898</v>
       </c>
       <c r="O24" s="11">
-        <v>0.51842123921585503</v>
+        <v>0.19380044694245599</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="15"/>
       <c r="C25" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="14">
-        <v>55</v>
-      </c>
-      <c r="E25" s="14">
-        <v>40</v>
-      </c>
-      <c r="F25" s="14">
-        <v>39</v>
-      </c>
-      <c r="G25" s="14">
-        <v>45</v>
-      </c>
-      <c r="H25" s="14">
-        <v>40</v>
-      </c>
-      <c r="I25" s="14">
-        <v>36</v>
-      </c>
-      <c r="J25" s="14">
-        <v>38</v>
-      </c>
-      <c r="K25" s="14">
-        <v>42</v>
-      </c>
-      <c r="L25" s="14">
-        <v>41</v>
-      </c>
-      <c r="M25" s="14">
-        <v>37</v>
-      </c>
-      <c r="N25" s="14">
-        <v>36</v>
-      </c>
-      <c r="O25" s="14">
-        <v>19</v>
+        <v>2</v>
+      </c>
+      <c r="D25" s="11">
+        <v>0.36280067430934498</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.35281515605464803</v>
+      </c>
+      <c r="F25" s="11">
+        <v>0.33152565655557997</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.34129528898265199</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0.33119595413427599</v>
+      </c>
+      <c r="I25" s="11">
+        <v>0.28718514019497399</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0.31454659295556497</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0.309372902867594</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0.29263143980857997</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0.30607145810589997</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0.30757454986687399</v>
+      </c>
+      <c r="O25" s="11">
+        <v>0.19092951902278801</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="15"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="C26" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0.35674340477320798</v>
+      </c>
+      <c r="E26" s="11">
+        <v>0.33666031372657301</v>
+      </c>
+      <c r="F26" s="11">
+        <v>0.333285961338947</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.35370570261865197</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0.33434971914051298</v>
+      </c>
+      <c r="I26" s="11">
+        <v>0.28404892600395798</v>
+      </c>
+      <c r="J26" s="11">
+        <v>0.319154028863191</v>
+      </c>
+      <c r="K26" s="11">
+        <v>0.32426518003111698</v>
+      </c>
+      <c r="L26" s="11">
+        <v>0.30442121223079599</v>
+      </c>
+      <c r="M26" s="11">
+        <v>0.31987866946309101</v>
+      </c>
+      <c r="N26" s="11">
+        <v>0.31217125262364098</v>
+      </c>
+      <c r="O26" s="11">
+        <v>0.19729774477283599</v>
+      </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="15">
-        <v>0</v>
-      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D27" s="11">
-        <v>0.30498686070215802</v>
+        <v>0.36333978736364098</v>
       </c>
       <c r="E27" s="11">
-        <v>0.36467943420064702</v>
+        <v>0.35254979682155302</v>
       </c>
       <c r="F27" s="11">
-        <v>0.37603024897360698</v>
+        <v>0.33325886805702498</v>
       </c>
       <c r="G27" s="11">
-        <v>0.37264338892951199</v>
+        <v>0.33969388363643899</v>
       </c>
       <c r="H27" s="11">
-        <v>0.33996215002914798</v>
+        <v>0.33039914181984797</v>
       </c>
       <c r="I27" s="11">
-        <v>0.33875766454783302</v>
+        <v>0.28631887173845699</v>
       </c>
       <c r="J27" s="11">
-        <v>0.32508419136997802</v>
+        <v>0.31447077167843701</v>
       </c>
       <c r="K27" s="11">
-        <v>0.32547122051180599</v>
+        <v>0.30958490278940098</v>
       </c>
       <c r="L27" s="11">
-        <v>0.316869055070989</v>
+        <v>0.29032779960191801</v>
       </c>
       <c r="M27" s="11">
-        <v>0.27756310821269897</v>
+        <v>0.30443390564561301</v>
       </c>
       <c r="N27" s="11">
-        <v>0.22651910586676799</v>
+        <v>0.30592978378902003</v>
       </c>
       <c r="O27" s="11">
-        <v>8.8212302763967299E-2</v>
+        <v>0.187920353291119</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="15"/>
       <c r="C28" s="13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D28" s="11">
-        <v>0.26074027088790402</v>
+        <v>0.30263023923024801</v>
       </c>
       <c r="E28" s="11">
-        <v>0.33145479747936502</v>
+        <v>0.295703742734025</v>
       </c>
       <c r="F28" s="11">
-        <v>0.34611037421283602</v>
+        <v>0.27093518348231799</v>
       </c>
       <c r="G28" s="11">
-        <v>0.34681360142319001</v>
+        <v>0.28307909398250702</v>
       </c>
       <c r="H28" s="11">
-        <v>0.31035806379058301</v>
+        <v>0.26338251856949302</v>
       </c>
       <c r="I28" s="11">
-        <v>0.30635781592471201</v>
+        <v>0.201777549333752</v>
       </c>
       <c r="J28" s="11">
-        <v>0.29854837771856202</v>
+        <v>0.25040215065596499</v>
       </c>
       <c r="K28" s="11">
-        <v>0.29479041500932102</v>
+        <v>0.25856670202231402</v>
       </c>
       <c r="L28" s="11">
-        <v>0.29701255086496298</v>
+        <v>0.23967007934455301</v>
       </c>
       <c r="M28" s="11">
-        <v>0.265064759584003</v>
+        <v>0.23997515852561199</v>
       </c>
       <c r="N28" s="11">
-        <v>0.21488206188185899</v>
+        <v>0.24078323998464199</v>
       </c>
       <c r="O28" s="11">
-        <v>7.5859570979317198E-2</v>
+        <v>0.14162640022806999</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="15"/>
       <c r="C29" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="11">
-        <v>0.23321043123080801</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.286849038540407</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0.29266792165681199</v>
-      </c>
-      <c r="G29" s="11">
-        <v>0.280945471813769</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0.25615110047144202</v>
-      </c>
-      <c r="I29" s="11">
-        <v>0.260603285687311</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0.25366556687626202</v>
-      </c>
-      <c r="K29" s="11">
-        <v>0.248264680528411</v>
-      </c>
-      <c r="L29" s="11">
-        <v>0.252192111825497</v>
-      </c>
-      <c r="M29" s="11">
-        <v>0.219616260655946</v>
-      </c>
-      <c r="N29" s="11">
-        <v>0.182790506050026</v>
-      </c>
-      <c r="O29" s="11">
-        <v>6.0011651138382201E-2</v>
+        <v>64</v>
+      </c>
+      <c r="D29" s="14">
+        <v>75</v>
+      </c>
+      <c r="E29" s="14">
+        <v>68</v>
+      </c>
+      <c r="F29" s="14">
+        <v>67</v>
+      </c>
+      <c r="G29" s="14">
+        <v>78</v>
+      </c>
+      <c r="H29" s="14">
+        <v>84</v>
+      </c>
+      <c r="I29" s="14">
+        <v>80</v>
+      </c>
+      <c r="J29" s="14">
+        <v>76</v>
+      </c>
+      <c r="K29" s="14">
+        <v>88</v>
+      </c>
+      <c r="L29" s="14">
+        <v>82</v>
+      </c>
+      <c r="M29" s="14">
+        <v>82</v>
+      </c>
+      <c r="N29" s="14">
+        <v>74</v>
+      </c>
+      <c r="O29" s="14">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="15"/>
+      <c r="B30" s="15">
+        <v>0.1</v>
+      </c>
       <c r="C30" s="13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D30" s="11">
-        <v>0.28226074714343502</v>
+        <v>0.457510748497652</v>
       </c>
       <c r="E30" s="11">
-        <v>0.33538859097574097</v>
+        <v>0.537709154844216</v>
       </c>
       <c r="F30" s="11">
-        <v>0.35251634436576701</v>
+        <v>0.50324775000628996</v>
       </c>
       <c r="G30" s="11">
-        <v>0.33659585073589599</v>
+        <v>0.52163035427275894</v>
       </c>
       <c r="H30" s="11">
-        <v>0.31000879223820599</v>
+        <v>0.58615347212221403</v>
       </c>
       <c r="I30" s="11">
-        <v>0.30073283271072598</v>
+        <v>0.52060910949496797</v>
       </c>
       <c r="J30" s="11">
-        <v>0.293366061933925</v>
+        <v>0.53729523069271801</v>
       </c>
       <c r="K30" s="11">
-        <v>0.29308489772097601</v>
+        <v>0.54858642349860298</v>
       </c>
       <c r="L30" s="11">
-        <v>0.29210060839687602</v>
+        <v>0.46898668193159099</v>
       </c>
       <c r="M30" s="11">
-        <v>0.25368852355086302</v>
+        <v>0.51162245976719201</v>
       </c>
       <c r="N30" s="11">
-        <v>0.205709855753303</v>
+        <v>0.46493932294308499</v>
       </c>
       <c r="O30" s="11">
-        <v>7.2266590264798494E-2</v>
+        <v>0.49103933879143002</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="15"/>
       <c r="C31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="14">
-        <v>65</v>
-      </c>
-      <c r="E31" s="14">
-        <v>72</v>
-      </c>
-      <c r="F31" s="14">
-        <v>73</v>
-      </c>
-      <c r="G31" s="14">
-        <v>62</v>
-      </c>
-      <c r="H31" s="14">
-        <v>56</v>
-      </c>
-      <c r="I31" s="14">
-        <v>60</v>
-      </c>
-      <c r="J31" s="14">
-        <v>64</v>
-      </c>
-      <c r="K31" s="14">
-        <v>52</v>
-      </c>
-      <c r="L31" s="14">
-        <v>58</v>
-      </c>
-      <c r="M31" s="14">
-        <v>58</v>
-      </c>
-      <c r="N31" s="14">
-        <v>66</v>
-      </c>
-      <c r="O31" s="14">
-        <v>69</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.432401991724846</v>
+      </c>
+      <c r="E31" s="11">
+        <v>0.51851007322369003</v>
+      </c>
+      <c r="F31" s="11">
+        <v>0.491032102533976</v>
+      </c>
+      <c r="G31" s="11">
+        <v>0.50978880943929195</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0.56880176324199605</v>
+      </c>
+      <c r="I31" s="11">
+        <v>0.50311459271251202</v>
+      </c>
+      <c r="J31" s="11">
+        <v>0.52953174798871205</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0.55577927574792996</v>
+      </c>
+      <c r="L31" s="11">
+        <v>0.472233910384665</v>
+      </c>
+      <c r="M31" s="11">
+        <v>0.518495120459737</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0.47052771079614603</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0.501172526939063</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
-        <v>0.1</v>
-      </c>
+      <c r="B32" s="15"/>
       <c r="C32" s="13" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D32" s="11">
-        <v>0.45391998650648402</v>
+        <v>0.45684028432968798</v>
       </c>
       <c r="E32" s="11">
-        <v>0.498443251959308</v>
+        <v>0.53087916874852803</v>
       </c>
       <c r="F32" s="11">
-        <v>0.54531420941133102</v>
+        <v>0.51057537439104195</v>
       </c>
       <c r="G32" s="11">
-        <v>0.57741826585640399</v>
+        <v>0.52484977184461901</v>
       </c>
       <c r="H32" s="11">
-        <v>0.60485947421646402</v>
+        <v>0.56856955737956305</v>
       </c>
       <c r="I32" s="11">
-        <v>0.69806448845189295</v>
+        <v>0.4783058053764</v>
       </c>
       <c r="J32" s="11">
-        <v>0.62079070871277697</v>
+        <v>0.51801345855191505</v>
       </c>
       <c r="K32" s="11">
-        <v>0.63806412761970299</v>
+        <v>0.54993968205494803</v>
       </c>
       <c r="L32" s="11">
-        <v>0.69506354174192697</v>
+        <v>0.48577707654861901</v>
       </c>
       <c r="M32" s="11">
-        <v>0.58317478220108798</v>
+        <v>0.52763587251831501</v>
       </c>
       <c r="N32" s="11">
-        <v>0.512868285699565</v>
+        <v>0.46985437496489402</v>
       </c>
       <c r="O32" s="11">
-        <v>0.62902754666451</v>
+        <v>0.47147335511477401</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="15"/>
       <c r="C33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.47023851064369498</v>
+      </c>
+      <c r="E33" s="11">
+        <v>0.55616681425653103</v>
+      </c>
+      <c r="F33" s="11">
+        <v>0.51642256257031505</v>
+      </c>
+      <c r="G33" s="11">
+        <v>0.53294600152675597</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0.58625140383021201</v>
+      </c>
+      <c r="I33" s="11">
+        <v>0.53392198943100999</v>
+      </c>
+      <c r="J33" s="11">
+        <v>0.54334495164246899</v>
+      </c>
+      <c r="K33" s="11">
+        <v>0.56099975643512201</v>
+      </c>
+      <c r="L33" s="11">
+        <v>0.48945715611349599</v>
+      </c>
+      <c r="M33" s="11">
+        <v>0.52981300124355202</v>
+      </c>
+      <c r="N33" s="11">
+        <v>0.47903492589604602</v>
+      </c>
+      <c r="O33" s="11">
+        <v>0.51842123921585503</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.460456736323756</v>
+      </c>
+      <c r="E34" s="11">
+        <v>0.53294282578420105</v>
+      </c>
+      <c r="F34" s="11">
+        <v>0.51278804448663295</v>
+      </c>
+      <c r="G34" s="11">
+        <v>0.52340886171349699</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0.57170173637021504</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0.48569213791268701</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0.52605585241136998</v>
+      </c>
+      <c r="K34" s="11">
+        <v>0.56099920567853501</v>
+      </c>
+      <c r="L34" s="11">
+        <v>0.48664085710465799</v>
+      </c>
+      <c r="M34" s="11">
+        <v>0.52597983118896896</v>
+      </c>
+      <c r="N34" s="11">
+        <v>0.46553376990620599</v>
+      </c>
+      <c r="O34" s="11">
+        <v>0.47987136607537201</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.46982806419398598</v>
+      </c>
+      <c r="E35" s="11">
+        <v>0.555506299067133</v>
+      </c>
+      <c r="F35" s="11">
+        <v>0.51479826283455998</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0.53027979547036597</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0.58675383889657096</v>
+      </c>
+      <c r="I35" s="11">
+        <v>0.53516866807635299</v>
+      </c>
+      <c r="J35" s="11">
+        <v>0.54423153726135298</v>
+      </c>
+      <c r="K35" s="11">
+        <v>0.56081073847304497</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0.486685324031643</v>
+      </c>
+      <c r="M35" s="11">
+        <v>0.52818931737631403</v>
+      </c>
+      <c r="N35" s="11">
+        <v>0.47656679756513398</v>
+      </c>
+      <c r="O35" s="11">
+        <v>0.51471462147051505</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.39635619606820899</v>
+      </c>
+      <c r="E36" s="11">
+        <v>0.47212469897875398</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0.43697515905351902</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0.44622088782731201</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0.47718027302132998</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0.37312480342515703</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0.42938335648384601</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0.46140516350023503</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0.39510571074158302</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0.41987396190875498</v>
+      </c>
+      <c r="N36" s="11">
+        <v>0.39837196037285399</v>
+      </c>
+      <c r="O36" s="11">
+        <v>0.393010920034572</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="14">
+        <v>55</v>
+      </c>
+      <c r="E37" s="14">
+        <v>40</v>
+      </c>
+      <c r="F37" s="14">
+        <v>39</v>
+      </c>
+      <c r="G37" s="14">
+        <v>45</v>
+      </c>
+      <c r="H37" s="14">
+        <v>40</v>
+      </c>
+      <c r="I37" s="14">
+        <v>36</v>
+      </c>
+      <c r="J37" s="14">
+        <v>38</v>
+      </c>
+      <c r="K37" s="14">
+        <v>42</v>
+      </c>
+      <c r="L37" s="14">
+        <v>41</v>
+      </c>
+      <c r="M37" s="14">
+        <v>37</v>
+      </c>
+      <c r="N37" s="14">
+        <v>36</v>
+      </c>
+      <c r="O37" s="14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
+        <v>0</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.30498686070215802</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.36467943420064702</v>
+      </c>
+      <c r="F39" s="11">
+        <v>0.37603024897360698</v>
+      </c>
+      <c r="G39" s="11">
+        <v>0.37264338892951199</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0.33996215002914798</v>
+      </c>
+      <c r="I39" s="11">
+        <v>0.33875766454783302</v>
+      </c>
+      <c r="J39" s="11">
+        <v>0.32508419136997802</v>
+      </c>
+      <c r="K39" s="11">
+        <v>0.32547122051180599</v>
+      </c>
+      <c r="L39" s="11">
+        <v>0.316869055070989</v>
+      </c>
+      <c r="M39" s="11">
+        <v>0.27756310821269897</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0.22651910586676799</v>
+      </c>
+      <c r="O39" s="11">
+        <v>8.8212302763967299E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="11">
+        <v>0.26074027088790402</v>
+      </c>
+      <c r="E40" s="11">
+        <v>0.33145479747936502</v>
+      </c>
+      <c r="F40" s="11">
+        <v>0.34611037421283602</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0.34681360142319001</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0.31035806379058301</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0.30635781592471201</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0.29854837771856202</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0.29479041500932102</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0.29701255086496298</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0.265064759584003</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0.21488206188185899</v>
+      </c>
+      <c r="O40" s="11">
+        <v>7.5859570979317198E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="11">
+        <v>0.23321043123080801</v>
+      </c>
+      <c r="E41" s="11">
+        <v>0.286849038540407</v>
+      </c>
+      <c r="F41" s="11">
+        <v>0.29266792165681199</v>
+      </c>
+      <c r="G41" s="11">
+        <v>0.280945471813769</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0.25615110047144202</v>
+      </c>
+      <c r="I41" s="11">
+        <v>0.260603285687311</v>
+      </c>
+      <c r="J41" s="11">
+        <v>0.25366556687626202</v>
+      </c>
+      <c r="K41" s="11">
+        <v>0.248264680528411</v>
+      </c>
+      <c r="L41" s="11">
+        <v>0.252192111825497</v>
+      </c>
+      <c r="M41" s="11">
+        <v>0.219616260655946</v>
+      </c>
+      <c r="N41" s="11">
+        <v>0.182790506050026</v>
+      </c>
+      <c r="O41" s="11">
+        <v>6.0011651138382201E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="11">
+        <v>0.28226074714343502</v>
+      </c>
+      <c r="E42" s="11">
+        <v>0.33538859097574097</v>
+      </c>
+      <c r="F42" s="11">
+        <v>0.35251634436576701</v>
+      </c>
+      <c r="G42" s="11">
+        <v>0.33659585073589599</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0.31000879223820599</v>
+      </c>
+      <c r="I42" s="11">
+        <v>0.30073283271072598</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0.293366061933925</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0.29308489772097601</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0.29210060839687602</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0.25368852355086302</v>
+      </c>
+      <c r="N42" s="11">
+        <v>0.205709855753303</v>
+      </c>
+      <c r="O42" s="11">
+        <v>7.2266590264798494E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="11">
+        <v>0.23978618479104699</v>
+      </c>
+      <c r="E43" s="11">
+        <v>0.30487318695905902</v>
+      </c>
+      <c r="F43" s="11">
+        <v>0.30368561626635798</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0.30055053045052099</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0.27538183567143298</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0.28019307510381303</v>
+      </c>
+      <c r="J43" s="11">
+        <v>0.27020684752398799</v>
+      </c>
+      <c r="K43" s="11">
+        <v>0.25740770783470002</v>
+      </c>
+      <c r="L43" s="11">
+        <v>0.26377983961637003</v>
+      </c>
+      <c r="M43" s="11">
+        <v>0.22666779612618701</v>
+      </c>
+      <c r="N43" s="11">
+        <v>0.19131760107821699</v>
+      </c>
+      <c r="O43" s="11">
+        <v>6.4390682895376597E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="11">
+        <v>0.28324174223243098</v>
+      </c>
+      <c r="E44" s="11">
+        <v>0.33733900372934</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0.35530166237892302</v>
+      </c>
+      <c r="G44" s="11">
+        <v>0.33973011920144702</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0.31209431456939901</v>
+      </c>
+      <c r="I44" s="11">
+        <v>0.30377599720952198</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0.29698815687616498</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0.295059886736733</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0.29474245644388802</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0.25610251037794401</v>
+      </c>
+      <c r="N44" s="11">
+        <v>0.21121955333161499</v>
+      </c>
+      <c r="O44" s="11">
+        <v>7.6035019258512498E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D45" s="11">
+        <v>0.18484479213886201</v>
+      </c>
+      <c r="E45" s="11">
+        <v>0.234718814484909</v>
+      </c>
+      <c r="F45" s="11">
+        <v>0.24509191975612399</v>
+      </c>
+      <c r="G45" s="11">
+        <v>0.22988136817678201</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0.216814910472513</v>
+      </c>
+      <c r="I45" s="11">
+        <v>0.22084443098673801</v>
+      </c>
+      <c r="J45" s="11">
+        <v>0.21184229230641499</v>
+      </c>
+      <c r="K45" s="11">
+        <v>0.20888378750146</v>
+      </c>
+      <c r="L45" s="11">
+        <v>0.20135454759163501</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0.17166563740801399</v>
+      </c>
+      <c r="N45" s="11">
+        <v>0.14981407562350699</v>
+      </c>
+      <c r="O45" s="11">
+        <v>4.2024584624487202E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="14">
+        <v>65</v>
+      </c>
+      <c r="E46" s="14">
+        <v>72</v>
+      </c>
+      <c r="F46" s="14">
+        <v>73</v>
+      </c>
+      <c r="G46" s="14">
+        <v>62</v>
+      </c>
+      <c r="H46" s="14">
+        <v>56</v>
+      </c>
+      <c r="I46" s="14">
+        <v>60</v>
+      </c>
+      <c r="J46" s="14">
+        <v>64</v>
+      </c>
+      <c r="K46" s="14">
+        <v>52</v>
+      </c>
+      <c r="L46" s="14">
+        <v>58</v>
+      </c>
+      <c r="M46" s="14">
+        <v>58</v>
+      </c>
+      <c r="N46" s="14">
+        <v>66</v>
+      </c>
+      <c r="O46" s="14">
         <v>69</v>
       </c>
-      <c r="D33" s="11">
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="11">
+        <v>0.45391998650648402</v>
+      </c>
+      <c r="E47" s="11">
+        <v>0.498443251959308</v>
+      </c>
+      <c r="F47" s="11">
+        <v>0.54531420941133102</v>
+      </c>
+      <c r="G47" s="11">
+        <v>0.57741826585640399</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0.60485947421646402</v>
+      </c>
+      <c r="I47" s="11">
+        <v>0.69806448845189295</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0.62079070871277697</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0.63806412761970299</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0.69506354174192697</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0.58317478220108798</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0.512868285699565</v>
+      </c>
+      <c r="O47" s="11">
+        <v>0.62902754666451</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="11">
         <v>0.39863512752733199</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E48" s="11">
         <v>0.46765555394360903</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F48" s="11">
         <v>0.51003581881956805</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G48" s="11">
         <v>0.53846660865586105</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H48" s="11">
         <v>0.55805186199641599</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I48" s="11">
         <v>0.63559174362068005</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J48" s="11">
         <v>0.57831516048638298</v>
       </c>
-      <c r="K33" s="11">
+      <c r="K48" s="11">
         <v>0.59091647352055199</v>
       </c>
-      <c r="L33" s="11">
+      <c r="L48" s="11">
         <v>0.65816948476808401</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M48" s="11">
         <v>0.558814982963038</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N48" s="11">
         <v>0.48865864276750398</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O48" s="11">
         <v>0.560514582764994</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="11">
+        <v>0.37602695803264002</v>
+      </c>
+      <c r="E49" s="11">
+        <v>0.41551260675690999</v>
+      </c>
+      <c r="F49" s="11">
+        <v>0.44118720741345302</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.45732119649095798</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.48236614786423099</v>
+      </c>
+      <c r="I49" s="11">
+        <v>0.569139361968521</v>
+      </c>
+      <c r="J49" s="11">
+        <v>0.50561303444754202</v>
+      </c>
+      <c r="K49" s="11">
+        <v>0.537594389837043</v>
+      </c>
+      <c r="L49" s="11">
+        <v>0.58450739385230699</v>
+      </c>
+      <c r="M49" s="11">
+        <v>0.482709522134805</v>
+      </c>
+      <c r="N49" s="11">
+        <v>0.43255972739412302</v>
+      </c>
+      <c r="O49" s="11">
+        <v>0.46570589483845398</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="11">
+        <v>0.42944500587928203</v>
+      </c>
+      <c r="E50" s="11">
+        <v>0.47874182349091798</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0.52804402904519998</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0.54398741927614203</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0.57765761550833306</v>
+      </c>
+      <c r="I50" s="11">
+        <v>0.65526456886765105</v>
+      </c>
+      <c r="J50" s="11">
+        <v>0.58139638484135503</v>
+      </c>
+      <c r="K50" s="11">
+        <v>0.60500021771478496</v>
+      </c>
+      <c r="L50" s="11">
+        <v>0.66958324403830805</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0.54917887656723297</v>
+      </c>
+      <c r="N50" s="11">
+        <v>0.47681543294612799</v>
+      </c>
+      <c r="O50" s="11">
+        <v>0.56506939348172003</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" s="11">
+        <v>0.37897155150408601</v>
+      </c>
+      <c r="E51" s="11">
+        <v>0.43241961018574698</v>
+      </c>
+      <c r="F51" s="11">
+        <v>0.456482711260148</v>
+      </c>
+      <c r="G51" s="11">
+        <v>0.47323278668577801</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0.50229918650647798</v>
+      </c>
+      <c r="I51" s="11">
+        <v>0.60230378740749801</v>
+      </c>
+      <c r="J51" s="11">
+        <v>0.52946625201811703</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0.544584786795419</v>
+      </c>
+      <c r="L51" s="11">
+        <v>0.59934143055849198</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0.491351947596886</v>
+      </c>
+      <c r="N51" s="11">
+        <v>0.44021319305571199</v>
+      </c>
+      <c r="O51" s="11">
+        <v>0.46987134623552002</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="13"/>
+      <c r="C52" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="11">
+        <v>0.42747788623372002</v>
+      </c>
+      <c r="E52" s="11">
+        <v>0.47824031778854598</v>
+      </c>
+      <c r="F52" s="11">
+        <v>0.52926715323642604</v>
+      </c>
+      <c r="G52" s="11">
+        <v>0.54444498454643797</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0.575957663617361</v>
+      </c>
+      <c r="I52" s="11">
+        <v>0.65700528082898502</v>
+      </c>
+      <c r="J52" s="11">
+        <v>0.582981409824746</v>
+      </c>
+      <c r="K52" s="11">
+        <v>0.60468832223680202</v>
+      </c>
+      <c r="L52" s="11">
+        <v>0.67240790070205803</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0.552163483634319</v>
+      </c>
+      <c r="N52" s="11">
+        <v>0.48122691828061598</v>
+      </c>
+      <c r="O52" s="11">
+        <v>0.56600724971199001</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="11">
+        <v>0.29681603523217398</v>
+      </c>
+      <c r="E53" s="11">
+        <v>0.34008698943412502</v>
+      </c>
+      <c r="F53" s="11">
+        <v>0.36447428235891399</v>
+      </c>
+      <c r="G53" s="11">
+        <v>0.368470682866403</v>
+      </c>
+      <c r="H53" s="11">
+        <v>0.39075431327700999</v>
+      </c>
+      <c r="I53" s="11">
+        <v>0.48245334917105198</v>
+      </c>
+      <c r="J53" s="11">
+        <v>0.41507989670473799</v>
+      </c>
+      <c r="K53" s="11">
+        <v>0.43204237076232399</v>
+      </c>
+      <c r="L53" s="11">
+        <v>0.44892198846954601</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0.37625936838497398</v>
+      </c>
+      <c r="N53" s="11">
+        <v>0.34538648074556799</v>
+      </c>
+      <c r="O53" s="11">
+        <v>0.278966748147566</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C54" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" s="14">
+        <v>39</v>
+      </c>
+      <c r="E54" s="14">
+        <v>47</v>
+      </c>
+      <c r="F54" s="14">
+        <v>48</v>
+      </c>
+      <c r="G54" s="14">
+        <v>37</v>
+      </c>
+      <c r="H54" s="14">
+        <v>29</v>
+      </c>
+      <c r="I54" s="14">
+        <v>26</v>
+      </c>
+      <c r="J54" s="14">
+        <v>31</v>
+      </c>
+      <c r="K54" s="14">
+        <v>23</v>
+      </c>
+      <c r="L54" s="14">
+        <v>24</v>
+      </c>
+      <c r="M54" s="14">
+        <v>26</v>
+      </c>
+      <c r="N54" s="14">
+        <v>27</v>
+      </c>
+      <c r="O54" s="14">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5:D11">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F11">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G11">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H11">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I11">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J11">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K11">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L11">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5:M11">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5:N11">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5:O11">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D19">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13:E19">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:F19">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13:G19">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13:H19">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13:I19">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J19">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K19">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L19">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M19">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N19">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O19">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:D45">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E45">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:F45">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G45">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H45">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I45">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J45">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K45">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L45">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:M45">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39:N45">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:O45">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47:D53">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47:E53">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:F53">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:G53">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47:H53">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47:I53">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:J53">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47:K53">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47:L53">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M47:M53">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N47:N53">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O47:O53">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D28 D22">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E28 E22">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F28 F22">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G28 G22">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H28 H22">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I28 I22">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J28 J22">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K28 K22">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L28 L22">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M28 M22">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N28 N22">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:O28 O22">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D36 D30">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E36 E30">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F36 F30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G36 G30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32:H36 H30">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:I36 I30">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32:J36 J30">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K36 K30">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32:L36 L30">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:M36 M30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N36 N30">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:O36 O30">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D28">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E28">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G28">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H28">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:I28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22:K28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22:L28">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22:M28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22:N28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22:O28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D36">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E36">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F36">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30:H36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30:I36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J36">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30:K36">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30:L36">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M36">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:N36">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B6DC7E-515B-4970-BE5D-89A7772DAB74}">
+  <dimension ref="C5:O29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="D6" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.0288987026649901</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1.0284094855866599</v>
+      </c>
+      <c r="F7" s="17">
+        <v>1.0387744190500701</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1.0635407275864599</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1.08541567728515</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1.0998403030361801</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1.0817029637858899</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1.0575701817165299</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1.0386260861019001</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1.0292796293825801</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1.0306932136423701</v>
+      </c>
+      <c r="O7" s="17">
+        <v>1.0197930125900401</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.02340868389312</v>
+      </c>
+      <c r="E8" s="17">
+        <v>1.0383572994964501</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1.06354207409513</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1.0564094721624999</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1.0564451832866599</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1.0630335259656001</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1.05640191636839</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1.0501105842434</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1.0482981281186701</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1.0386415138646801</v>
+      </c>
+      <c r="N8" s="17">
+        <v>1.0352157340608901</v>
+      </c>
+      <c r="O8" s="17">
+        <v>1.02646554283833</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.0036652807351201</v>
+      </c>
+      <c r="E9" s="17">
+        <v>1.00896260880235</v>
+      </c>
+      <c r="F9" s="17">
+        <v>1.00186703747477</v>
+      </c>
+      <c r="G9" s="17">
+        <v>1.0120906064016899</v>
+      </c>
+      <c r="H9" s="17">
+        <v>1.01023301447696</v>
+      </c>
+      <c r="I9" s="17">
+        <v>1.0151742474743</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1.00271672552416</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.993318480873989</v>
+      </c>
+      <c r="L9" s="17">
+        <v>0.99621525076217798</v>
+      </c>
+      <c r="M9" s="17">
+        <v>0.99207763844783703</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0.989007264204537</v>
+      </c>
+      <c r="O9" s="17">
+        <v>0.98140736840446496</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.0164004170993699</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1.0265495951315999</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1.04239754194089</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1.03847057979608</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1.04261038905029</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1.04618894526912</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1.0443463519142799</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1.0395149028489199</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1.0396634182737201</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1.0323309543863799</v>
+      </c>
+      <c r="N10" s="17">
+        <v>1.0291488784287901</v>
+      </c>
+      <c r="O10" s="17">
+        <v>1.0200946577966801</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.00221190927961</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1.0013924046523901</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.99840511245988905</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1.0028177359533601</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1.0002687376444901</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1.0018575475803699</v>
+      </c>
+      <c r="J11" s="17">
+        <v>0.99632131465901497</v>
+      </c>
+      <c r="K11" s="17">
+        <v>0.99088833094175799</v>
+      </c>
+      <c r="L11" s="17">
+        <v>0.99116698880302401</v>
+      </c>
+      <c r="M11" s="17">
+        <v>0.98827702721997301</v>
+      </c>
+      <c r="N11" s="17">
+        <v>0.98406597056081002</v>
+      </c>
+      <c r="O11" s="17">
+        <v>0.97886604822080503</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.10387911277364</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1.12657224841339</v>
+      </c>
+      <c r="F12" s="17">
+        <v>1.14876346933634</v>
+      </c>
+      <c r="G12" s="17">
+        <v>1.15568561672887</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1.1606475255465101</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1.1787179492923201</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1.1754144186479401</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1.16127519117158</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1.16700774114968</v>
+      </c>
+      <c r="M12" s="17">
+        <v>1.1709136065883701</v>
+      </c>
+      <c r="N12" s="17">
+        <v>1.1504764090208</v>
+      </c>
+      <c r="O12" s="17">
+        <v>1.0697473721946</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="14">
+        <v>140</v>
+      </c>
+      <c r="E13" s="14">
+        <v>140</v>
+      </c>
+      <c r="F13" s="14">
+        <v>140</v>
+      </c>
+      <c r="G13" s="14">
+        <v>140</v>
+      </c>
+      <c r="H13" s="14">
+        <v>140</v>
+      </c>
+      <c r="I13" s="14">
+        <v>140</v>
+      </c>
+      <c r="J13" s="14">
+        <v>140</v>
+      </c>
+      <c r="K13" s="14">
+        <v>140</v>
+      </c>
+      <c r="L13" s="14">
+        <v>140</v>
+      </c>
+      <c r="M13" s="14">
+        <v>140</v>
+      </c>
+      <c r="N13" s="14">
+        <v>140</v>
+      </c>
+      <c r="O13" s="14">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="13"/>
+      <c r="D14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1.0156805691628199</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.0131702737118899</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.02850825347425</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1.05350017038171</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1.0419671401577999</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1.02354208137643</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1.02394278327452</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1.0052996173497999</v>
+      </c>
+      <c r="L15" s="17">
+        <v>0.99840644089682495</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1.0051998260273201</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1.02770236920886</v>
+      </c>
+      <c r="O15" s="17">
+        <v>1.0062016285094399</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.98707266965468998</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.987697270548757</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1.0025764309866401</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1.0005373642427999</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.99720444910756201</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.98550288799903496</v>
+      </c>
+      <c r="J16" s="17">
+        <v>0.98138540747748004</v>
+      </c>
+      <c r="K16" s="17">
+        <v>0.98103479049008702</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.97207680333410396</v>
+      </c>
+      <c r="M16" s="17">
+        <v>0.97255711320959803</v>
+      </c>
+      <c r="N16" s="17">
+        <v>0.99356522466702801</v>
+      </c>
+      <c r="O16" s="17">
+        <v>0.98610294431421797</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C17" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.990034934487389</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.99259890838766096</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0.97950102234683301</v>
+      </c>
+      <c r="G17" s="17">
+        <v>0.98306276428389305</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0.98377342820925895</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0.97778977584147198</v>
+      </c>
+      <c r="J17" s="17">
+        <v>0.97879290729753099</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0.97145061531529797</v>
+      </c>
+      <c r="L17" s="17">
+        <v>0.96879289374882804</v>
+      </c>
+      <c r="M17" s="17">
+        <v>0.95917367644639995</v>
+      </c>
+      <c r="N17" s="17">
+        <v>0.95362567315760005</v>
+      </c>
+      <c r="O17" s="17">
+        <v>0.94706100776561297</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C18" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.98327833303112</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.98604363856299604</v>
+      </c>
+      <c r="F18" s="17">
+        <v>0.99824688888649604</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.99884723043747503</v>
+      </c>
+      <c r="H18" s="17">
+        <v>0.99195119891974004</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0.98190920839537499</v>
+      </c>
+      <c r="J18" s="17">
+        <v>0.97866576055270604</v>
+      </c>
+      <c r="K18" s="17">
+        <v>0.97394064462128405</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0.96846660840586296</v>
+      </c>
+      <c r="M18" s="17">
+        <v>0.97197833389127397</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0.99264498535280898</v>
+      </c>
+      <c r="O18" s="17">
+        <v>0.98051515028190095</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.98969007197738801</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.97953763443038899</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0.97788868060897205</v>
+      </c>
+      <c r="G19" s="17">
+        <v>0.98324145297240295</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0.98354747279446197</v>
+      </c>
+      <c r="I19" s="17">
+        <v>0.97721761552183894</v>
+      </c>
+      <c r="J19" s="17">
+        <v>0.97112128083104698</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0.96873290762297204</v>
+      </c>
+      <c r="L19" s="17">
+        <v>0.96779868699190397</v>
+      </c>
+      <c r="M19" s="17">
+        <v>0.95964243796698201</v>
+      </c>
+      <c r="N19" s="17">
+        <v>0.95240762311679805</v>
+      </c>
+      <c r="O19" s="17">
+        <v>0.94646786802441296</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C20" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1.03671606754945</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1.0390813876192699</v>
+      </c>
+      <c r="F20" s="17">
+        <v>1.07178380299465</v>
+      </c>
+      <c r="G20" s="17">
+        <v>1.0878114927509801</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1.0680267949249</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1.0581871549478501</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1.0611701500378901</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1.04957831531551</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1.03029104460886</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1.05814232370253</v>
+      </c>
+      <c r="N20" s="17">
+        <v>1.0731304968406501</v>
+      </c>
+      <c r="O20" s="17">
+        <v>1.03378260210067</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="14">
+        <v>80</v>
+      </c>
+      <c r="E21" s="14">
+        <v>73</v>
+      </c>
+      <c r="F21" s="14">
+        <v>72</v>
+      </c>
+      <c r="G21" s="14">
+        <v>85</v>
+      </c>
+      <c r="H21" s="14">
+        <v>94</v>
+      </c>
+      <c r="I21" s="14">
+        <v>91</v>
+      </c>
+      <c r="J21" s="14">
+        <v>89</v>
+      </c>
+      <c r="K21" s="14">
+        <v>100</v>
+      </c>
+      <c r="L21" s="14">
+        <v>95</v>
+      </c>
+      <c r="M21" s="14">
+        <v>93</v>
+      </c>
+      <c r="N21" s="14">
+        <v>89</v>
+      </c>
+      <c r="O21" s="14">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C22" s="13"/>
+      <c r="D22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="11">
-        <v>0.37602695803264002</v>
-      </c>
-      <c r="E34" s="11">
-        <v>0.41551260675690999</v>
-      </c>
-      <c r="F34" s="11">
-        <v>0.44118720741345302</v>
-      </c>
-      <c r="G34" s="11">
-        <v>0.45732119649095798</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0.48236614786423099</v>
-      </c>
-      <c r="I34" s="11">
-        <v>0.569139361968521</v>
-      </c>
-      <c r="J34" s="11">
-        <v>0.50561303444754202</v>
-      </c>
-      <c r="K34" s="11">
-        <v>0.537594389837043</v>
-      </c>
-      <c r="L34" s="11">
-        <v>0.58450739385230699</v>
-      </c>
-      <c r="M34" s="11">
-        <v>0.482709522134805</v>
-      </c>
-      <c r="N34" s="11">
-        <v>0.43255972739412302</v>
-      </c>
-      <c r="O34" s="11">
-        <v>0.46570589483845398</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13" t="s">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1.0465228806678799</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1.04501340300245</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1.04964447671859</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1.07905795235744</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1.17420181837148</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1.2415370004043</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1.1825001415410199</v>
+      </c>
+      <c r="K23" s="17">
+        <v>1.1882465926333601</v>
+      </c>
+      <c r="L23" s="17">
+        <v>1.12353422597927</v>
+      </c>
+      <c r="M23" s="17">
+        <v>1.07692689985151</v>
+      </c>
+      <c r="N23" s="17">
+        <v>1.0359125303989001</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1.0475667104938799</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1.07185670287768</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1.0935540474543699</v>
+      </c>
+      <c r="F24" s="17">
+        <v>1.1280939315041201</v>
+      </c>
+      <c r="G24" s="17">
+        <v>1.1427572753111199</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1.17750233573958</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1.20701899647494</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1.18731307894271</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1.2228000686267</v>
+      </c>
+      <c r="L24" s="17">
+        <v>1.2092098137749701</v>
+      </c>
+      <c r="M24" s="17">
+        <v>1.1694042640970801</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1.10789995633644</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1.1089456354745699</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1.0218390757321001</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1.02679171522432</v>
+      </c>
+      <c r="F25" s="17">
+        <v>1.0255487005513999</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1.0569518169473699</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1.0643026038066199</v>
+      </c>
+      <c r="I25" s="17">
+        <v>1.08460255193526</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1.04446613380199</v>
+      </c>
+      <c r="K25" s="17">
+        <v>1.04798814477072</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1.0541068933459199</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1.0571854781528101</v>
+      </c>
+      <c r="N25" s="17">
+        <v>1.0507516093648801</v>
+      </c>
+      <c r="O25" s="17">
+        <v>1.05159340970995</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C26" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="11">
-        <v>0.42944500587928203</v>
-      </c>
-      <c r="E35" s="11">
-        <v>0.47874182349091798</v>
-      </c>
-      <c r="F35" s="11">
-        <v>0.52804402904519998</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0.54398741927614203</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0.57765761550833306</v>
-      </c>
-      <c r="I35" s="11">
-        <v>0.65526456886765105</v>
-      </c>
-      <c r="J35" s="11">
-        <v>0.58139638484135503</v>
-      </c>
-      <c r="K35" s="11">
-        <v>0.60500021771478496</v>
-      </c>
-      <c r="L35" s="11">
-        <v>0.66958324403830805</v>
-      </c>
-      <c r="M35" s="11">
-        <v>0.54917887656723297</v>
-      </c>
-      <c r="N35" s="11">
-        <v>0.47681543294612799</v>
-      </c>
-      <c r="O35" s="11">
-        <v>0.56506939348172003</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="C36" s="13" t="s">
+      <c r="D26" s="17">
+        <v>1.0605631958570301</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1.0706829507958999</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1.0891452922337901</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1.0997066651684599</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1.1461313427953299</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1.1655655994632199</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1.1589654231138999</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1.20345054841802</v>
+      </c>
+      <c r="L26" s="17">
+        <v>1.18996779466142</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1.15175209706818</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1.09285175065943</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1.10097452097904</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1.0189076923492399</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1.0252043184763699</v>
+      </c>
+      <c r="F27" s="17">
+        <v>1.0201283932432099</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1.0330719914694</v>
+      </c>
+      <c r="H27" s="17">
+        <v>1.0344382788597799</v>
+      </c>
+      <c r="I27" s="17">
+        <v>1.04761742140337</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1.0402978442803701</v>
+      </c>
+      <c r="K27" s="17">
+        <v>1.04627688923872</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1.0405000704042799</v>
+      </c>
+      <c r="M27" s="17">
+        <v>1.0449369591461</v>
+      </c>
+      <c r="N27" s="17">
+        <v>1.0393128906101601</v>
+      </c>
+      <c r="O27" s="17">
+        <v>1.04507102514387</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1.19342983973921</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1.22189811166669</v>
+      </c>
+      <c r="F28" s="17">
+        <v>1.2302713513451999</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1.2605819901492501</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1.3499159750776399</v>
+      </c>
+      <c r="I28" s="17">
+        <v>1.4025608530749101</v>
+      </c>
+      <c r="J28" s="17">
+        <v>1.37478186779098</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1.44051738081174</v>
+      </c>
+      <c r="L28" s="17">
+        <v>1.4556318782913999</v>
+      </c>
+      <c r="M28" s="17">
+        <v>1.3940567833624899</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1.28545260870774</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1.1432405980387399</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C29" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D29" s="14">
+        <v>60</v>
+      </c>
+      <c r="E29" s="14">
+        <v>67</v>
+      </c>
+      <c r="F29" s="14">
+        <v>68</v>
+      </c>
+      <c r="G29" s="14">
+        <v>55</v>
+      </c>
+      <c r="H29" s="14">
+        <v>46</v>
+      </c>
+      <c r="I29" s="14">
+        <v>49</v>
+      </c>
+      <c r="J29" s="14">
+        <v>51</v>
+      </c>
+      <c r="K29" s="14">
+        <v>40</v>
+      </c>
+      <c r="L29" s="14">
+        <v>45</v>
+      </c>
+      <c r="M29" s="14">
+        <v>47</v>
+      </c>
+      <c r="N29" s="14">
+        <v>51</v>
+      </c>
+      <c r="O29" s="14">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D16:D20">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E20">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F20">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G20">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:H20">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16:I20">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J20">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:K20">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16:L20">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16:M20">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N20">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O16:O20">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N20">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O20">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:D12">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F12">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G12">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7:H12">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:I12">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:J12">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7:K12">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L12">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:M12">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:N12">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O12">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:O12">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:O20">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D28">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E28">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24:F28">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24:G28">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24:H28">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24:I28">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:J28">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:K28">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:L28">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24:M28">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N28">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24:O28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:E28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O28">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:O28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3BD57-056D-4AC9-B26B-594C6AE42397}">
+  <dimension ref="C6:P29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="23">
+        <v>19</v>
+      </c>
+      <c r="F8" s="23">
+        <v>19</v>
+      </c>
+      <c r="G8" s="23">
+        <v>22</v>
+      </c>
+      <c r="H8" s="23">
+        <v>21</v>
+      </c>
+      <c r="I8" s="23">
+        <v>24</v>
+      </c>
+      <c r="J8" s="23">
+        <v>26</v>
+      </c>
+      <c r="K8" s="23">
+        <v>22</v>
+      </c>
+      <c r="L8" s="23">
+        <v>31</v>
+      </c>
+      <c r="M8" s="23">
+        <v>28</v>
+      </c>
+      <c r="N8" s="23">
+        <v>26</v>
+      </c>
+      <c r="O8" s="23">
+        <v>21</v>
+      </c>
+      <c r="P8" s="23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="24"/>
+      <c r="D9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="23">
+        <v>12</v>
+      </c>
+      <c r="F9" s="23">
+        <v>13</v>
+      </c>
+      <c r="G9" s="23">
+        <v>15</v>
+      </c>
+      <c r="H9" s="23">
+        <v>17</v>
+      </c>
+      <c r="I9" s="23">
+        <v>20</v>
+      </c>
+      <c r="J9" s="23">
+        <v>22</v>
+      </c>
+      <c r="K9" s="23">
+        <v>20</v>
+      </c>
+      <c r="L9" s="23">
+        <v>29</v>
+      </c>
+      <c r="M9" s="23">
+        <v>26</v>
+      </c>
+      <c r="N9" s="23">
+        <v>29</v>
+      </c>
+      <c r="O9" s="23">
+        <v>25</v>
+      </c>
+      <c r="P9" s="23">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="24"/>
+      <c r="D10" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>16</v>
+      </c>
+      <c r="F10" s="23">
+        <v>23</v>
+      </c>
+      <c r="G10" s="23">
+        <v>21</v>
+      </c>
+      <c r="H10" s="23">
+        <v>19</v>
+      </c>
+      <c r="I10" s="23">
+        <v>25</v>
+      </c>
+      <c r="J10" s="23">
+        <v>23</v>
+      </c>
+      <c r="K10" s="23">
+        <v>23</v>
+      </c>
+      <c r="L10" s="23">
+        <v>27</v>
+      </c>
+      <c r="M10" s="23">
+        <v>30</v>
+      </c>
+      <c r="N10" s="23">
+        <v>34</v>
+      </c>
+      <c r="O10" s="23">
+        <v>40</v>
+      </c>
+      <c r="P10" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="24"/>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="23">
+        <v>14</v>
+      </c>
+      <c r="F11" s="23">
+        <v>17</v>
+      </c>
+      <c r="G11" s="23">
+        <v>21</v>
+      </c>
+      <c r="H11" s="23">
+        <v>22</v>
+      </c>
+      <c r="I11" s="23">
+        <v>24</v>
+      </c>
+      <c r="J11" s="23">
+        <v>25</v>
+      </c>
+      <c r="K11" s="23">
+        <v>21</v>
+      </c>
+      <c r="L11" s="23">
+        <v>29</v>
+      </c>
+      <c r="M11" s="23">
+        <v>30</v>
+      </c>
+      <c r="N11" s="23">
+        <v>32</v>
+      </c>
+      <c r="O11" s="23">
+        <v>30</v>
+      </c>
+      <c r="P11" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="24"/>
+      <c r="D12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="23">
+        <v>20</v>
+      </c>
+      <c r="F12" s="23">
+        <v>23</v>
+      </c>
+      <c r="G12" s="23">
+        <v>22</v>
+      </c>
+      <c r="H12" s="23">
+        <v>21</v>
+      </c>
+      <c r="I12" s="23">
+        <v>24</v>
+      </c>
+      <c r="J12" s="23">
+        <v>23</v>
+      </c>
+      <c r="K12" s="23">
+        <v>21</v>
+      </c>
+      <c r="L12" s="23">
+        <v>29</v>
+      </c>
+      <c r="M12" s="23">
+        <v>30</v>
+      </c>
+      <c r="N12" s="23">
+        <v>37</v>
+      </c>
+      <c r="O12" s="23">
+        <v>44</v>
+      </c>
+      <c r="P12" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="19"/>
+      <c r="D13" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="25">
+        <v>42</v>
+      </c>
+      <c r="F13" s="25">
+        <v>48</v>
+      </c>
+      <c r="G13" s="25">
+        <v>47</v>
+      </c>
+      <c r="H13" s="25">
+        <v>47</v>
+      </c>
+      <c r="I13" s="25">
+        <v>40</v>
+      </c>
+      <c r="J13" s="25">
+        <v>36</v>
+      </c>
+      <c r="K13" s="25">
+        <v>35</v>
+      </c>
+      <c r="L13" s="25">
+        <v>33</v>
+      </c>
+      <c r="M13" s="25">
+        <v>32</v>
+      </c>
+      <c r="N13" s="25">
+        <v>26</v>
+      </c>
+      <c r="O13" s="25">
+        <v>24</v>
+      </c>
+      <c r="P13" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="23">
+        <v>15</v>
+      </c>
+      <c r="F14" s="23">
+        <v>12</v>
+      </c>
+      <c r="G14" s="23">
+        <v>14</v>
+      </c>
+      <c r="H14" s="23">
+        <v>12</v>
+      </c>
+      <c r="I14" s="23">
+        <v>13</v>
+      </c>
+      <c r="J14" s="23">
+        <v>14</v>
+      </c>
+      <c r="K14" s="23">
+        <v>13</v>
+      </c>
+      <c r="L14" s="23">
+        <v>19</v>
+      </c>
+      <c r="M14" s="23">
+        <v>17</v>
+      </c>
+      <c r="N14" s="23">
+        <v>18</v>
+      </c>
+      <c r="O14" s="23">
+        <v>16</v>
+      </c>
+      <c r="P14" s="23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C15" s="26"/>
+      <c r="D15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="23">
+        <v>7</v>
+      </c>
+      <c r="F15" s="23">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23">
+        <v>9</v>
+      </c>
+      <c r="H15" s="23">
+        <v>10</v>
+      </c>
+      <c r="I15" s="23">
+        <v>13</v>
+      </c>
+      <c r="J15" s="23">
+        <v>14</v>
+      </c>
+      <c r="K15" s="23">
+        <v>12</v>
+      </c>
+      <c r="L15" s="23">
+        <v>20</v>
+      </c>
+      <c r="M15" s="23">
+        <v>19</v>
+      </c>
+      <c r="N15" s="23">
+        <v>22</v>
+      </c>
+      <c r="O15" s="23">
+        <v>21</v>
+      </c>
+      <c r="P15" s="23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C16" s="26"/>
+      <c r="D16" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="23">
+        <v>10</v>
+      </c>
+      <c r="F16" s="23">
+        <v>14</v>
+      </c>
+      <c r="G16" s="23">
+        <v>12</v>
+      </c>
+      <c r="H16" s="23">
+        <v>10</v>
+      </c>
+      <c r="I16" s="23">
+        <v>12</v>
+      </c>
+      <c r="J16" s="23">
+        <v>14</v>
+      </c>
+      <c r="K16" s="23">
+        <v>14</v>
+      </c>
+      <c r="L16" s="23">
+        <v>11</v>
+      </c>
+      <c r="M16" s="23">
+        <v>23</v>
+      </c>
+      <c r="N16" s="23">
+        <v>23</v>
+      </c>
+      <c r="O16" s="23">
+        <v>30</v>
+      </c>
+      <c r="P16" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="23">
+        <v>9</v>
+      </c>
+      <c r="F17" s="23">
+        <v>11</v>
+      </c>
+      <c r="G17" s="23">
+        <v>12</v>
+      </c>
+      <c r="H17" s="23">
+        <v>14</v>
+      </c>
+      <c r="I17" s="23">
+        <v>14</v>
+      </c>
+      <c r="J17" s="23">
+        <v>16</v>
+      </c>
+      <c r="K17" s="23">
+        <v>12</v>
+      </c>
+      <c r="L17" s="23">
+        <v>20</v>
+      </c>
+      <c r="M17" s="23">
+        <v>20</v>
+      </c>
+      <c r="N17" s="23">
+        <v>22</v>
+      </c>
+      <c r="O17" s="23">
+        <v>22</v>
+      </c>
+      <c r="P17" s="23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
+      <c r="D18" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="23">
+        <v>11</v>
+      </c>
+      <c r="F18" s="23">
+        <v>14</v>
+      </c>
+      <c r="G18" s="23">
+        <v>15</v>
+      </c>
+      <c r="H18" s="23">
+        <v>11</v>
+      </c>
+      <c r="I18" s="23">
+        <v>11</v>
+      </c>
+      <c r="J18" s="23">
+        <v>14</v>
+      </c>
+      <c r="K18" s="23">
+        <v>13</v>
+      </c>
+      <c r="L18" s="23">
+        <v>11</v>
+      </c>
+      <c r="M18" s="23">
+        <v>23</v>
+      </c>
+      <c r="N18" s="23">
+        <v>23</v>
+      </c>
+      <c r="O18" s="23">
+        <v>31</v>
+      </c>
+      <c r="P18" s="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C19" s="27"/>
+      <c r="D19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="25">
+        <v>27</v>
+      </c>
+      <c r="F19" s="25">
+        <v>34</v>
+      </c>
+      <c r="G19" s="25">
         <v>39</v>
       </c>
-      <c r="E36" s="14">
-        <v>47</v>
-      </c>
-      <c r="F36" s="14">
-        <v>48</v>
-      </c>
-      <c r="G36" s="14">
-        <v>37</v>
-      </c>
-      <c r="H36" s="14">
+      <c r="H19" s="25">
+        <v>35</v>
+      </c>
+      <c r="I19" s="25">
         <v>29</v>
       </c>
-      <c r="I36" s="14">
-        <v>26</v>
-      </c>
-      <c r="J36" s="14">
-        <v>31</v>
-      </c>
-      <c r="K36" s="14">
+      <c r="J19" s="25">
+        <v>30</v>
+      </c>
+      <c r="K19" s="25">
+        <v>28</v>
+      </c>
+      <c r="L19" s="25">
+        <v>27</v>
+      </c>
+      <c r="M19" s="25">
+        <v>27</v>
+      </c>
+      <c r="N19" s="25">
+        <v>21</v>
+      </c>
+      <c r="O19" s="25">
         <v>23</v>
       </c>
-      <c r="L36" s="14">
-        <v>24</v>
-      </c>
-      <c r="M36" s="14">
-        <v>26</v>
-      </c>
-      <c r="N36" s="14">
-        <v>27</v>
-      </c>
-      <c r="O36" s="14">
-        <v>8</v>
-      </c>
+      <c r="P19" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D20" s="13"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="13"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D24" s="13"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D25" s="13"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D26" s="13"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="13"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D28" s="13"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D5:D8">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E8">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F8">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G8">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H8">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:I8">
-    <cfRule type="colorScale" priority="79">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J8">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K5:K8">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L8">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M8">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N8">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5:O8">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D13">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10:E13">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F13">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G13">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I13">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:J13">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K13">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10:L13">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:M13">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:N13">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O13">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D27:D30">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E27:E30">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F30">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:G30">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H30">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I27:I30">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J30">
+  <conditionalFormatting sqref="E20">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="min"/>
@@ -5829,7 +9871,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K30">
+  <conditionalFormatting sqref="F20">
     <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
@@ -5841,7 +9883,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L30">
+  <conditionalFormatting sqref="G20">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="min"/>
@@ -5853,7 +9895,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M30">
+  <conditionalFormatting sqref="H20">
     <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
@@ -5865,7 +9907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N30">
+  <conditionalFormatting sqref="I20">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="min"/>
@@ -5877,7 +9919,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O30">
+  <conditionalFormatting sqref="J20">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5889,7 +9931,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D35">
+  <conditionalFormatting sqref="K20">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5901,7 +9943,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E32:E35">
+  <conditionalFormatting sqref="L20">
     <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
@@ -5913,7 +9955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:F35">
+  <conditionalFormatting sqref="M20">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
@@ -5925,7 +9967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G35">
+  <conditionalFormatting sqref="N20">
     <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
@@ -5937,7 +9979,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H35">
+  <conditionalFormatting sqref="O20">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="min"/>
@@ -5949,7 +9991,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:I35">
+  <conditionalFormatting sqref="P20">
     <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
@@ -5961,319 +10003,163 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32:J35">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32:K35">
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20:P20">
     <cfRule type="colorScale" priority="53">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32:L35">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32:M35">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N35">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:O35">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19 D16">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:E19 E16">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F19 F16">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18:G19 G16">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H19 H16">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:I19 I16">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J19 J16">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K18:K19 K16">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L18:L19 L16">
-    <cfRule type="colorScale" priority="40">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M19 M16">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N19 N16">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O19 O16">
-    <cfRule type="colorScale" priority="37">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24 D21">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23:E24 E21">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F24 F21">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23:G24 G21">
-    <cfRule type="colorScale" priority="33">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H24 H21">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23:I24 I21">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J23:J24 J21">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23:K24 K21">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:L24 L21">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24:E28">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6285,7 +10171,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M23:M24 M21">
+  <conditionalFormatting sqref="F24:F28">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6297,7 +10183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N24 N21">
+  <conditionalFormatting sqref="G24:G28">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6309,7 +10195,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23:O24 O21">
+  <conditionalFormatting sqref="H24:H28">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6321,7 +10207,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D19">
+  <conditionalFormatting sqref="I24:I28">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6333,7 +10219,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E19">
+  <conditionalFormatting sqref="J24:J28">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6345,7 +10231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F19">
+  <conditionalFormatting sqref="K24:K28">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
@@ -6357,7 +10243,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G19">
+  <conditionalFormatting sqref="L24:L28">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6369,7 +10255,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H19">
+  <conditionalFormatting sqref="M24:M28">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6381,7 +10267,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I16:I19">
+  <conditionalFormatting sqref="N24:N28">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6393,7 +10279,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J19">
+  <conditionalFormatting sqref="O24:O28">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6405,7 +10291,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K16:K19">
+  <conditionalFormatting sqref="P24:P28">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6417,175 +10303,163 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16:L19">
+  <conditionalFormatting sqref="E23:E28">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23:F28">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23:G28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23:H28">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23:I28">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:J28">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23:K28">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L23:L28">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23:M28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N28">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O23:O28">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23:P28">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23:P28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M19">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N19">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:O19">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D24">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E24">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F24">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G24">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H24">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I24">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J21:J24">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21:K24">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:L24">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21:M24">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N24">
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14:P19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6597,7 +10471,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O21:O24">
+  <conditionalFormatting sqref="E8:P13">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
